--- a/Actual Coding/Francesco_posts.xlsx
+++ b/Actual Coding/Francesco_posts.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>K0LMP9</t>
+          <t>VR2UGS</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>QOLP0J</t>
+          <t>NMNSHA</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>33KZE5</t>
+          <t>U319YI</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>8EM8EX</t>
+          <t>W807TX</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4R1P2G</t>
+          <t>K4VTKJ</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Z9LJ65</t>
+          <t>3U8S20</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>I7LHHW</t>
+          <t>BIQLDJ</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>J6IZHD</t>
+          <t>RPAL4S</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>7RP61S</t>
+          <t>FMMBAK</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ADJ5MZ</t>
+          <t>3D42ZT</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>COZ1OB</t>
+          <t>A7IZTE</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AJUWHG</t>
+          <t>V6RC7H</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>YJWWX0</t>
+          <t>HUS24G</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>8KR4ZG</t>
+          <t>NUYXD5</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>6YNS4X</t>
+          <t>E2DKOT</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ZSJ8EU</t>
+          <t>6ZDEAP</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>WA7WSU</t>
+          <t>1110HJ</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>VGXUG0</t>
+          <t>8IR0D2</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ZNDNPM</t>
+          <t>E7IXOE</t>
         </is>
       </c>
     </row>
@@ -790,7 +790,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>RNOJAR</t>
+          <t>S1HU7T</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>L1LDBO</t>
+          <t>RUP80E</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SY6EY5</t>
+          <t>Y4W80A</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>I7EFM1</t>
+          <t>17AF2B</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>RBNLHC</t>
+          <t>WSUI54</t>
         </is>
       </c>
     </row>
@@ -875,7 +875,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>C2Z7JL</t>
+          <t>9SXEFB</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>FZOCTJ</t>
+          <t>EQRQ19</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>98MC8T</t>
+          <t>OY7B9B</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CEDYYD</t>
+          <t>ZH6D09</t>
         </is>
       </c>
     </row>
@@ -943,7 +943,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>IYWE0M</t>
+          <t>HD5PFK</t>
         </is>
       </c>
     </row>
@@ -960,7 +960,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ZTQIQI</t>
+          <t>RKE8O8</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4MDUHI</t>
+          <t>TUXPC1</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>S0H5EM</t>
+          <t>BZWLNG</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>3VHAZH</t>
+          <t>ZQQSEA</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>KXH8S4</t>
+          <t>F2G3FI</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TEMY7J</t>
+          <t>8GQ979</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>COYT8G</t>
+          <t>VAD0VN</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0MJ4FD</t>
+          <t>NKON86</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>W7AZCU</t>
+          <t>75RG5P</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>EM08TO</t>
+          <t>YYNBPY</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SMSRDI</t>
+          <t>JHIM0K</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ZYKAC7</t>
+          <t>2FD4Q0</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>POWNPS</t>
+          <t>6FAQNA</t>
         </is>
       </c>
     </row>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>B2U5F0</t>
+          <t>RTLGPJ</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>OY14T4</t>
+          <t>UZONRF</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>FATQ31</t>
+          <t>WZC8BR</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>L9TVFT</t>
+          <t>Z2A3JU</t>
         </is>
       </c>
     </row>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>VKDK4G</t>
+          <t>X4XOEC</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CQ7MOO</t>
+          <t>MJX3E8</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>STZIOV</t>
+          <t>UCZNU9</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>B5ONAJ</t>
+          <t>UGPC5Z</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>TKHNTD</t>
+          <t>PCS6OZ</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>KU2EI7</t>
+          <t>WGMBQB</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>46CYGH</t>
+          <t>ZQCTE1</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>RJLNIL</t>
+          <t>PT5USO</t>
         </is>
       </c>
     </row>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>KZF6MH</t>
+          <t>9VI5NP</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>M2FAR1</t>
+          <t>JLPW70</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>AQO7BZ</t>
+          <t>A7LMXT</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>M2ZERU</t>
+          <t>F2OS6Q</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>TFG71D</t>
+          <t>XNOZ0B</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0GF8SI</t>
+          <t>CGM7OR</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>MPD36B</t>
+          <t>8MMMEU</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>IJPJAJ</t>
+          <t>XXU7P2</t>
         </is>
       </c>
     </row>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>LI2IMB</t>
+          <t>D9LEFL</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>VWF0Y3</t>
+          <t>KFYG6K</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Y5SQ12</t>
+          <t>2PEZ7S</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Q0BRF2</t>
+          <t>HCDW2H</t>
         </is>
       </c>
     </row>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>K0YKIP</t>
+          <t>G372I1</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>EVKHK6</t>
+          <t>Z6L66X</t>
         </is>
       </c>
     </row>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>66PA0M</t>
+          <t>W9Z764</t>
         </is>
       </c>
     </row>
@@ -1645,7 +1645,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>EUYLZD</t>
+          <t>NMMUX2</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>3X315S</t>
+          <t>3RV4M4</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>9Z0ZAL</t>
+          <t>902UUJ</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>MK17YG</t>
+          <t>JUIO5V</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>NLWMNH</t>
+          <t>7O4GJJ</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>5MFYAU</t>
+          <t>DZBGHF</t>
         </is>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>DU2BBP</t>
+          <t>G3SEEG</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0V31LW</t>
+          <t>WP4NT4</t>
         </is>
       </c>
     </row>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>UR9L0L</t>
+          <t>I9MS6C</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>LBGX26</t>
+          <t>OILUZD</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CJ7PHC</t>
+          <t>0GPJA1</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>AL54MB</t>
+          <t>MU5813</t>
         </is>
       </c>
     </row>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>55AC2G</t>
+          <t>RYAX4Z</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>XEEED8</t>
+          <t>J61ZYI</t>
         </is>
       </c>
     </row>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>9HFM08</t>
+          <t>1VSY1Z</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>D4Q0FJ</t>
+          <t>CB0KRO</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>OHN0CK</t>
+          <t>0R1713</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>LOKP8D</t>
+          <t>FWOF4U</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>OFSFCH</t>
+          <t>3S1LL3</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>134ZHJ</t>
+          <t>OKCM1P</t>
         </is>
       </c>
     </row>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>VDWSS9</t>
+          <t>YEBQIV</t>
         </is>
       </c>
     </row>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Z3ECZ1</t>
+          <t>N1RVMC</t>
         </is>
       </c>
     </row>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>AJJ0SV</t>
+          <t>S5BZHY</t>
         </is>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>YULNA7</t>
+          <t>JSXBIL</t>
         </is>
       </c>
     </row>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>9OYTO5</t>
+          <t>MLYMES</t>
         </is>
       </c>
     </row>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>VC9ZI7</t>
+          <t>DPZ8X0</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>MHAZJK</t>
+          <t>CNBT2P</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>WM9C5Y</t>
+          <t>UAW5BW</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>OHSN9J</t>
+          <t>904OKP</t>
         </is>
       </c>
     </row>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>8H4C3S</t>
+          <t>65XUHD</t>
         </is>
       </c>
     </row>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>9SO3EK</t>
+          <t>PDJGEU</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>ETOMWM</t>
+          <t>F7GW7A</t>
         </is>
       </c>
     </row>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>IKLW3O</t>
+          <t>XVME2J</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>J6I7RJ</t>
+          <t>QQPHKR</t>
         </is>
       </c>
     </row>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>CYQYU5</t>
+          <t>46Y324</t>
         </is>
       </c>
     </row>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>SDLL7S</t>
+          <t>IJY218</t>
         </is>
       </c>
     </row>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>B09MTE</t>
+          <t>CH7H51</t>
         </is>
       </c>
     </row>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>K1BQ1C</t>
+          <t>8YQU2X</t>
         </is>
       </c>
     </row>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>K0KG4W</t>
+          <t>SAV062</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>N08OMM</t>
+          <t>MCA2LM</t>
         </is>
       </c>
     </row>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>56OFBU</t>
+          <t>KHJ72D</t>
         </is>
       </c>
     </row>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>K263ET</t>
+          <t>GF5G8K</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>DFSZ5Y</t>
+          <t>8ZS54N</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>1109ES</t>
+          <t>K88PRM</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>GXRJDB</t>
+          <t>OF76Y9</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>U9FXZD</t>
+          <t>F7K68S</t>
         </is>
       </c>
     </row>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>0X7IIN</t>
+          <t>69Z0PZ</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>GN7LLA</t>
+          <t>EMJZE2</t>
         </is>
       </c>
     </row>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>53AW5C</t>
+          <t>65NGRF</t>
         </is>
       </c>
     </row>
@@ -2485,7 +2485,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>CJ2XFE</t>
+          <t>OK47SR</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>0ERSCN</t>
+          <t>RZBNP6</t>
         </is>
       </c>
     </row>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>CIL0X9</t>
+          <t>XXY7OT</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>1Y5IYY</t>
+          <t>SPA8VR</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>V3ATUV</t>
+          <t>968QD4</t>
         </is>
       </c>
     </row>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>E4Y2HY</t>
+          <t>E29TYR</t>
         </is>
       </c>
     </row>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>JG839S</t>
+          <t>8YKXJJ</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>JBFNH3</t>
+          <t>XIHJO7</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>TD89DB</t>
+          <t>EBEBET</t>
         </is>
       </c>
     </row>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>LT3BPE</t>
+          <t>VKBY5S</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>QRQFSL</t>
+          <t>ZEV2HB</t>
         </is>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>IUFXRC</t>
+          <t>YXSEWV</t>
         </is>
       </c>
     </row>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>YCZ2A9</t>
+          <t>YTN2SX</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>PH7RBW</t>
+          <t>GCUCBW</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>78XJE0</t>
+          <t>KQRBUP</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>YY2LQQ</t>
+          <t>4U82MB</t>
         </is>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HFUEWH</t>
+          <t>9D9BFV</t>
         </is>
       </c>
     </row>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>ISMXDM</t>
+          <t>RUJ6YZ</t>
         </is>
       </c>
     </row>
@@ -2794,7 +2794,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>935Y6E</t>
+          <t>DSRMBJ</t>
         </is>
       </c>
     </row>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>XWWQPI</t>
+          <t>LIYJK2</t>
         </is>
       </c>
     </row>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>XVJKFA</t>
+          <t>9HLFR5</t>
         </is>
       </c>
     </row>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>0N8P5I</t>
+          <t>RO2J7Y</t>
         </is>
       </c>
     </row>
@@ -2864,7 +2864,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>UAW5TS</t>
+          <t>8G6WZP</t>
         </is>
       </c>
     </row>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>GZ6G1K</t>
+          <t>78CGAD</t>
         </is>
       </c>
     </row>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>BP6W29</t>
+          <t>T2M3YK</t>
         </is>
       </c>
     </row>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>NHFEE2</t>
+          <t>E72H6X</t>
         </is>
       </c>
     </row>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>AX8QV7</t>
+          <t>U7R152</t>
         </is>
       </c>
     </row>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>NC9S8A</t>
+          <t>JT06WX</t>
         </is>
       </c>
     </row>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>0J0202</t>
+          <t>GSKPDC</t>
         </is>
       </c>
     </row>
@@ -2990,7 +2990,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>SDAEQC</t>
+          <t>6YJXIC</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>OF6EO4</t>
+          <t>O1GLDW</t>
         </is>
       </c>
     </row>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>YR7RGB</t>
+          <t>8DI9VR</t>
         </is>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>MTFBBB</t>
+          <t>WLDK3L</t>
         </is>
       </c>
     </row>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>6T4LG0</t>
+          <t>D21BVY</t>
         </is>
       </c>
     </row>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>8VUMTY</t>
+          <t>RLR428</t>
         </is>
       </c>
     </row>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Y43G9I</t>
+          <t>GGS551</t>
         </is>
       </c>
     </row>
@@ -3109,7 +3109,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>5SM0NJ</t>
+          <t>AKREMB</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>2UYBSP</t>
+          <t>7D73TS</t>
         </is>
       </c>
     </row>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>F9G51C</t>
+          <t>BZOSKF</t>
         </is>
       </c>
     </row>
@@ -3160,7 +3160,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>86JK5V</t>
+          <t>9CY201</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>XCXQ6V</t>
+          <t>CFMFMB</t>
         </is>
       </c>
     </row>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>6NDT51</t>
+          <t>ZKMQEN</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>1FF1TD</t>
+          <t>VZNV4W</t>
         </is>
       </c>
     </row>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Y533J4</t>
+          <t>BAU0DY</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>X4CLCF</t>
+          <t>OY1XDE</t>
         </is>
       </c>
     </row>
@@ -3263,7 +3263,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>9EZJ1H</t>
+          <t>4Q2MQ5</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>WNOVCS</t>
+          <t>4JOI0D</t>
         </is>
       </c>
     </row>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>KOFXD0</t>
+          <t>XM6OTX</t>
         </is>
       </c>
     </row>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>7J8TE7</t>
+          <t>F0WRL6</t>
         </is>
       </c>
     </row>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>7TK5HS</t>
+          <t>UT07WP</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>53QKKW</t>
+          <t>M9330H</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>6BOXVH</t>
+          <t>VTPFM6</t>
         </is>
       </c>
     </row>
@@ -3383,7 +3383,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>ZTWMFG</t>
+          <t>0U51VY</t>
         </is>
       </c>
     </row>
@@ -3400,7 +3400,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>NOOOIX</t>
+          <t>UGGD2D</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>ML8V1G</t>
+          <t>6HSNWB</t>
         </is>
       </c>
     </row>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>6YJGKG</t>
+          <t>C9XX2D</t>
         </is>
       </c>
     </row>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>KLN3XO</t>
+          <t>W0EMDH</t>
         </is>
       </c>
     </row>
@@ -3468,7 +3468,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>URSJ6W</t>
+          <t>DB6DVX</t>
         </is>
       </c>
     </row>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>QJJYHN</t>
+          <t>ZHFYGR</t>
         </is>
       </c>
     </row>
@@ -3502,7 +3502,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>72QMM0</t>
+          <t>JTHYUR</t>
         </is>
       </c>
     </row>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>OBBHXK</t>
+          <t>6VHQNE</t>
         </is>
       </c>
     </row>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>LYMPPJ</t>
+          <t>MASMFU</t>
         </is>
       </c>
     </row>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>DO15BF</t>
+          <t>FYVT4S</t>
         </is>
       </c>
     </row>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>4BE0FI</t>
+          <t>7P5FXL</t>
         </is>
       </c>
     </row>
@@ -3587,7 +3587,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>BTR2EF</t>
+          <t>6V88UA</t>
         </is>
       </c>
     </row>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>N4NT3P</t>
+          <t>HN5SBM</t>
         </is>
       </c>
     </row>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>1TGDQ7</t>
+          <t>Y5370J</t>
         </is>
       </c>
     </row>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>WZYY63</t>
+          <t>6VZ0G2</t>
         </is>
       </c>
     </row>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>XTF0OG</t>
+          <t>5XUASI</t>
         </is>
       </c>
     </row>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>U5GQR9</t>
+          <t>AWWIFZ</t>
         </is>
       </c>
     </row>
@@ -3689,7 +3689,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>1M42ZG</t>
+          <t>PSG821</t>
         </is>
       </c>
     </row>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>XKZ5JW</t>
+          <t>B13O0J</t>
         </is>
       </c>
     </row>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>WPP0R6</t>
+          <t>RBPGE4</t>
         </is>
       </c>
     </row>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>L19XOR</t>
+          <t>GK0HJN</t>
         </is>
       </c>
     </row>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>U9BD8A</t>
+          <t>IX2IOR</t>
         </is>
       </c>
     </row>
@@ -3774,7 +3774,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>TJZYK9</t>
+          <t>ILBNYU</t>
         </is>
       </c>
     </row>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>QFN9PB</t>
+          <t>PDACKI</t>
         </is>
       </c>
     </row>
@@ -3808,7 +3808,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>119FCT</t>
+          <t>VEQ81I</t>
         </is>
       </c>
     </row>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>ATPP69</t>
+          <t>BZ0ONW</t>
         </is>
       </c>
     </row>
@@ -3842,7 +3842,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>ECCY3Q</t>
+          <t>JY43AO</t>
         </is>
       </c>
     </row>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>OW3RFR</t>
+          <t>R33AL1</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>1ZUNB3</t>
+          <t>VD570W</t>
         </is>
       </c>
     </row>
@@ -3894,7 +3894,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>PN9VGU</t>
+          <t>HJLKBQ</t>
         </is>
       </c>
     </row>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>9JC0TR</t>
+          <t>ORNIBD</t>
         </is>
       </c>
     </row>
@@ -3928,7 +3928,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SQQAJD</t>
+          <t>BI6ACF</t>
         </is>
       </c>
     </row>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Z90UEH</t>
+          <t>S43S5F</t>
         </is>
       </c>
     </row>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>RB1EX3</t>
+          <t>LB420T</t>
         </is>
       </c>
     </row>
@@ -3979,7 +3979,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>6NKBLO</t>
+          <t>XPR81G</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>4MS4WQ</t>
+          <t>V3LAWH</t>
         </is>
       </c>
     </row>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>9HAOGK</t>
+          <t>LCIEJ6</t>
         </is>
       </c>
     </row>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Z51UZJ</t>
+          <t>YCXZOC</t>
         </is>
       </c>
     </row>
@@ -4048,7 +4048,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>LJ7GT5</t>
+          <t>0B8LFS</t>
         </is>
       </c>
     </row>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>USBBWS</t>
+          <t>6RJ5Y9</t>
         </is>
       </c>
     </row>
@@ -4082,7 +4082,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>1SZNC1</t>
+          <t>V3WA8F</t>
         </is>
       </c>
     </row>
@@ -4099,7 +4099,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>NIB2KW</t>
+          <t>OJ2695</t>
         </is>
       </c>
     </row>
@@ -4117,7 +4117,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>RNQLVZ</t>
+          <t>M9NA6M</t>
         </is>
       </c>
     </row>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>VX2Y6N</t>
+          <t>3W43SG</t>
         </is>
       </c>
     </row>
@@ -4151,7 +4151,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>X5HOK8</t>
+          <t>28LI4E</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>GBJFR7</t>
+          <t>QMI413</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>I2MQ8K</t>
+          <t>KPYS6O</t>
         </is>
       </c>
     </row>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>RGJNZE</t>
+          <t>T80QKS</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>WD90PN</t>
+          <t>W4L43L</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>2K7OVR</t>
+          <t>CWK9XA</t>
         </is>
       </c>
     </row>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>9D0GLC</t>
+          <t>AKKFKX</t>
         </is>
       </c>
     </row>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>U7RP5T</t>
+          <t>JHZFQW</t>
         </is>
       </c>
     </row>
@@ -4289,7 +4289,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>ZT9ZPD</t>
+          <t>U0HKT1</t>
         </is>
       </c>
     </row>
@@ -4306,7 +4306,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>X48R1B</t>
+          <t>JVFUXC</t>
         </is>
       </c>
     </row>
@@ -4323,7 +4323,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>4YKP8E</t>
+          <t>1EAT04</t>
         </is>
       </c>
     </row>
@@ -4340,7 +4340,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>P3W2OV</t>
+          <t>YCJQ8V</t>
         </is>
       </c>
     </row>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>COZ4EJ</t>
+          <t>Y065YA</t>
         </is>
       </c>
     </row>
@@ -4375,7 +4375,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>FPLYOG</t>
+          <t>0TTG9R</t>
         </is>
       </c>
     </row>
@@ -4394,7 +4394,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>W4Q284</t>
+          <t>KQ00Z1</t>
         </is>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>IT4QK8</t>
+          <t>BG54PY</t>
         </is>
       </c>
     </row>
@@ -4428,7 +4428,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>XX4RDE</t>
+          <t>LBVJP5</t>
         </is>
       </c>
     </row>
@@ -4445,7 +4445,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>JVD94O</t>
+          <t>JEA5QW</t>
         </is>
       </c>
     </row>
@@ -4462,7 +4462,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>AN4ZXG</t>
+          <t>8QCBO8</t>
         </is>
       </c>
     </row>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>FNAAA1</t>
+          <t>QMITZK</t>
         </is>
       </c>
     </row>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>854JBV</t>
+          <t>N2JT0N</t>
         </is>
       </c>
     </row>
@@ -4514,7 +4514,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>JO8DAJ</t>
+          <t>I3BPZA</t>
         </is>
       </c>
     </row>
@@ -4532,7 +4532,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>LW9J9M</t>
+          <t>CMJD37</t>
         </is>
       </c>
     </row>
@@ -4549,7 +4549,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>2O0UW8</t>
+          <t>DS27G6</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4566,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>RZAK7R</t>
+          <t>JVIX0T</t>
         </is>
       </c>
     </row>
@@ -4583,7 +4583,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>8A9CL0</t>
+          <t>HNBC72</t>
         </is>
       </c>
     </row>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>P0Y996</t>
+          <t>IYNC55</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>KHTXUT</t>
+          <t>OOOOMH</t>
         </is>
       </c>
     </row>
@@ -4634,7 +4634,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>1OVWRU</t>
+          <t>6VHPC1</t>
         </is>
       </c>
     </row>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>X0SQUA</t>
+          <t>NPADNC</t>
         </is>
       </c>
     </row>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>JULZYO</t>
+          <t>EWSNLD</t>
         </is>
       </c>
     </row>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>KCS5KZ</t>
+          <t>EYF4ZH</t>
         </is>
       </c>
     </row>
@@ -4702,7 +4702,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>PIGCTM</t>
+          <t>S7LH0Z</t>
         </is>
       </c>
     </row>
@@ -4719,7 +4719,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>V0GWHQ</t>
+          <t>88DSJE</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>YZ5SKC</t>
+          <t>HI71KO</t>
         </is>
       </c>
     </row>
@@ -4754,7 +4754,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>4AE8EU</t>
+          <t>8LELV5</t>
         </is>
       </c>
     </row>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>RHFC4K</t>
+          <t>XCDYP6</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>YO2SZ3</t>
+          <t>KX7KNW</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4806,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>7UMTT5</t>
+          <t>MD683P</t>
         </is>
       </c>
     </row>
@@ -4823,7 +4823,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>VOJ0A7</t>
+          <t>3Q72M3</t>
         </is>
       </c>
     </row>
@@ -4840,7 +4840,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>MLNGL4</t>
+          <t>3AUF12</t>
         </is>
       </c>
     </row>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>QM9I6X</t>
+          <t>JCMFA2</t>
         </is>
       </c>
     </row>
@@ -4874,7 +4874,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>XQJETO</t>
+          <t>8QNTBB</t>
         </is>
       </c>
     </row>
@@ -4891,7 +4891,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>MKI6O7</t>
+          <t>M40DNN</t>
         </is>
       </c>
     </row>
@@ -4908,7 +4908,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>HTTWW3</t>
+          <t>62YYT3</t>
         </is>
       </c>
     </row>
@@ -4925,7 +4925,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>89PMH9</t>
+          <t>Y8RFBJ</t>
         </is>
       </c>
     </row>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>OFZ1QD</t>
+          <t>APM6BB</t>
         </is>
       </c>
     </row>
@@ -4960,7 +4960,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>DUZ41X</t>
+          <t>SBG4VL</t>
         </is>
       </c>
     </row>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>SY3SDV</t>
+          <t>HJKNE5</t>
         </is>
       </c>
     </row>
@@ -4994,7 +4994,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>2MY0H5</t>
+          <t>TPZZPX</t>
         </is>
       </c>
     </row>
@@ -5011,7 +5011,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>E1EOPQ</t>
+          <t>X142AC</t>
         </is>
       </c>
     </row>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>RM28TG</t>
+          <t>ZHYA6E</t>
         </is>
       </c>
     </row>
@@ -5045,7 +5045,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>NPXY78</t>
+          <t>WTI4UN</t>
         </is>
       </c>
     </row>
@@ -5063,7 +5063,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>6KGESZ</t>
+          <t>BPKSPO</t>
         </is>
       </c>
     </row>
@@ -5080,7 +5080,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>U5RYGL</t>
+          <t>7Q1F0R</t>
         </is>
       </c>
     </row>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>QPF8VC</t>
+          <t>WYV0MR</t>
         </is>
       </c>
     </row>
@@ -5114,7 +5114,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>PQCG0O</t>
+          <t>9JUHST</t>
         </is>
       </c>
     </row>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>GLOR0E</t>
+          <t>63JQHK</t>
         </is>
       </c>
     </row>
@@ -5148,7 +5148,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>V170UK</t>
+          <t>WNJMMJ</t>
         </is>
       </c>
     </row>
@@ -5165,7 +5165,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>QSETTY</t>
+          <t>0XNMX8</t>
         </is>
       </c>
     </row>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>VMT987</t>
+          <t>OEW1XN</t>
         </is>
       </c>
     </row>
@@ -5199,7 +5199,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>90EFJY</t>
+          <t>INGOOM</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>G8OD0T</t>
+          <t>ENC1ZG</t>
         </is>
       </c>
     </row>
@@ -5233,7 +5233,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>PX2KZN</t>
+          <t>RNOBHT</t>
         </is>
       </c>
     </row>
@@ -5250,7 +5250,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>YX94BA</t>
+          <t>E40E1C</t>
         </is>
       </c>
     </row>
@@ -5267,7 +5267,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>ZT809T</t>
+          <t>YDZBEE</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5286,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>62D25J</t>
+          <t>2AB822</t>
         </is>
       </c>
     </row>
@@ -5303,7 +5303,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>E60AKE</t>
+          <t>Y3Z49X</t>
         </is>
       </c>
     </row>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Y0DCPI</t>
+          <t>C02CWB</t>
         </is>
       </c>
     </row>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>UU72U0</t>
+          <t>NMRGEJ</t>
         </is>
       </c>
     </row>
@@ -5354,7 +5354,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>3LZP21</t>
+          <t>AIGW4M</t>
         </is>
       </c>
     </row>
@@ -5371,7 +5371,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>03NYIF</t>
+          <t>D6TJBX</t>
         </is>
       </c>
     </row>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>6L7QRA</t>
+          <t>82KJMR</t>
         </is>
       </c>
     </row>
@@ -5405,7 +5405,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>MLSXLH</t>
+          <t>NAA27V</t>
         </is>
       </c>
     </row>
@@ -5422,7 +5422,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>MAZ3G0</t>
+          <t>52BZ2O</t>
         </is>
       </c>
     </row>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>EFQ4M3</t>
+          <t>U5YXR6</t>
         </is>
       </c>
     </row>
@@ -5456,7 +5456,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>7O9JW1</t>
+          <t>JK89FK</t>
         </is>
       </c>
     </row>
@@ -5474,7 +5474,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>8WWWUU</t>
+          <t>FNEC2L</t>
         </is>
       </c>
     </row>
@@ -5491,7 +5491,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>6YDY9U</t>
+          <t>JLFK0Y</t>
         </is>
       </c>
     </row>
@@ -5508,7 +5508,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>BCF7LR</t>
+          <t>BUWRTI</t>
         </is>
       </c>
     </row>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>4CPRRA</t>
+          <t>3M7J1W</t>
         </is>
       </c>
     </row>
@@ -5542,7 +5542,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>6JV23I</t>
+          <t>M4POR3</t>
         </is>
       </c>
     </row>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>F4GU8G</t>
+          <t>3QRLC2</t>
         </is>
       </c>
     </row>
@@ -5576,7 +5576,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>P7ABCU</t>
+          <t>D1ANSL</t>
         </is>
       </c>
     </row>
@@ -5594,7 +5594,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>RPQUZ6</t>
+          <t>Q0WO2S</t>
         </is>
       </c>
     </row>

--- a/Actual Coding/Francesco_posts.xlsx
+++ b/Actual Coding/Francesco_posts.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>VR2UGS</t>
+          <t>JGPHFW</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NMNSHA</t>
+          <t>ANJTL9</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>U319YI</t>
+          <t>6ATSE9</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>W807TX</t>
+          <t>XL7ZCM</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>K4VTKJ</t>
+          <t>YKYM6C</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3U8S20</t>
+          <t>TFCV0Y</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BIQLDJ</t>
+          <t>TIFUPN</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>RPAL4S</t>
+          <t>AUVWD4</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FMMBAK</t>
+          <t>4OLPHL</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3D42ZT</t>
+          <t>3YUQCM</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A7IZTE</t>
+          <t>EM02W8</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>V6RC7H</t>
+          <t>NN0USP</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HUS24G</t>
+          <t>20VBVX</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NUYXD5</t>
+          <t>8BSQ8Y</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>E2DKOT</t>
+          <t>UYMTFX</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>6ZDEAP</t>
+          <t>DL5RKR</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1110HJ</t>
+          <t>R3WH2F</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>8IR0D2</t>
+          <t>B517QK</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>E7IXOE</t>
+          <t>AEEQ6M</t>
         </is>
       </c>
     </row>
@@ -790,7 +790,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>S1HU7T</t>
+          <t>9OABQO</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>RUP80E</t>
+          <t>8T8PIW</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Y4W80A</t>
+          <t>GG98VY</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17AF2B</t>
+          <t>URK9F8</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>WSUI54</t>
+          <t>7IDW1V</t>
         </is>
       </c>
     </row>
@@ -875,7 +875,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>9SXEFB</t>
+          <t>8FL4DB</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EQRQ19</t>
+          <t>EH9X8V</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>OY7B9B</t>
+          <t>3ZU9B6</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ZH6D09</t>
+          <t>Q2722U</t>
         </is>
       </c>
     </row>
@@ -943,7 +943,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>HD5PFK</t>
+          <t>D2NX5A</t>
         </is>
       </c>
     </row>
@@ -960,7 +960,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>RKE8O8</t>
+          <t>ZLBK2S</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>TUXPC1</t>
+          <t>WN81EC</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>BZWLNG</t>
+          <t>72VK52</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ZQQSEA</t>
+          <t>G8SU1C</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>F2G3FI</t>
+          <t>2I65XF</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>8GQ979</t>
+          <t>WJCBE0</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>VAD0VN</t>
+          <t>3EMNZ1</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NKON86</t>
+          <t>YGZM8Q</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>75RG5P</t>
+          <t>MMFC66</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>YYNBPY</t>
+          <t>QC3C4S</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>JHIM0K</t>
+          <t>NCSVSG</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2FD4Q0</t>
+          <t>WTXB6Y</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>6FAQNA</t>
+          <t>E83A83</t>
         </is>
       </c>
     </row>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>RTLGPJ</t>
+          <t>T3MEG7</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>UZONRF</t>
+          <t>MH0WYT</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>WZC8BR</t>
+          <t>20VYHD</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Z2A3JU</t>
+          <t>4Z08QG</t>
         </is>
       </c>
     </row>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>X4XOEC</t>
+          <t>5X256O</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>MJX3E8</t>
+          <t>0MQYRD</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>UCZNU9</t>
+          <t>9P6GOP</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>UGPC5Z</t>
+          <t>7W7Y04</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PCS6OZ</t>
+          <t>ISZQDH</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>WGMBQB</t>
+          <t>J1N8XG</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ZQCTE1</t>
+          <t>H93C7Z</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>PT5USO</t>
+          <t>JQTPH8</t>
         </is>
       </c>
     </row>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>9VI5NP</t>
+          <t>YKBDJR</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>JLPW70</t>
+          <t>R43DA6</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>A7LMXT</t>
+          <t>N94H5R</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>F2OS6Q</t>
+          <t>5G6SPS</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>XNOZ0B</t>
+          <t>PFD2BN</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CGM7OR</t>
+          <t>QSXQMP</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>8MMMEU</t>
+          <t>PM9SL5</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>XXU7P2</t>
+          <t>B37VFS</t>
         </is>
       </c>
     </row>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>D9LEFL</t>
+          <t>RFK9M9</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>KFYG6K</t>
+          <t>J4LLEM</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2PEZ7S</t>
+          <t>KE4F8Z</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>HCDW2H</t>
+          <t>YXYO8T</t>
         </is>
       </c>
     </row>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>G372I1</t>
+          <t>V97EIX</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Z6L66X</t>
+          <t>6SJ6EO</t>
         </is>
       </c>
     </row>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>W9Z764</t>
+          <t>H7DQ24</t>
         </is>
       </c>
     </row>
@@ -1645,7 +1645,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>NMMUX2</t>
+          <t>SBEF2Y</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>3RV4M4</t>
+          <t>ZVZGSF</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>902UUJ</t>
+          <t>FG9YGP</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>JUIO5V</t>
+          <t>UPRL99</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>7O4GJJ</t>
+          <t>45W41F</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>DZBGHF</t>
+          <t>T0QEF1</t>
         </is>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>G3SEEG</t>
+          <t>MF77HQ</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>WP4NT4</t>
+          <t>4RRH98</t>
         </is>
       </c>
     </row>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>I9MS6C</t>
+          <t>CWCF0M</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>OILUZD</t>
+          <t>3BQ0M6</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0GPJA1</t>
+          <t>HBZIYY</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>MU5813</t>
+          <t>HYRO6V</t>
         </is>
       </c>
     </row>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>RYAX4Z</t>
+          <t>LC79C6</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>J61ZYI</t>
+          <t>YGA4DK</t>
         </is>
       </c>
     </row>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1VSY1Z</t>
+          <t>TW4KAA</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CB0KRO</t>
+          <t>QCCTNB</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>0R1713</t>
+          <t>QFT346</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>FWOF4U</t>
+          <t>XNPW0L</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>3S1LL3</t>
+          <t>TMLZZ6</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>OKCM1P</t>
+          <t>78SP5F</t>
         </is>
       </c>
     </row>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>YEBQIV</t>
+          <t>S7EW3B</t>
         </is>
       </c>
     </row>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>N1RVMC</t>
+          <t>OZQKQ3</t>
         </is>
       </c>
     </row>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>S5BZHY</t>
+          <t>GX7M0S</t>
         </is>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>JSXBIL</t>
+          <t>WU77BQ</t>
         </is>
       </c>
     </row>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>MLYMES</t>
+          <t>LP5Q8M</t>
         </is>
       </c>
     </row>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>DPZ8X0</t>
+          <t>UIRR32</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>CNBT2P</t>
+          <t>T4M7PG</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>UAW5BW</t>
+          <t>VKQFD0</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>904OKP</t>
+          <t>55ES28</t>
         </is>
       </c>
     </row>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>65XUHD</t>
+          <t>AJ8IOH</t>
         </is>
       </c>
     </row>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>PDJGEU</t>
+          <t>G16KZX</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>F7GW7A</t>
+          <t>9JMLQH</t>
         </is>
       </c>
     </row>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>XVME2J</t>
+          <t>OBQ2Y1</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>QQPHKR</t>
+          <t>R1G11I</t>
         </is>
       </c>
     </row>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>46Y324</t>
+          <t>MC5MG2</t>
         </is>
       </c>
     </row>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>IJY218</t>
+          <t>TZTIMO</t>
         </is>
       </c>
     </row>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>CH7H51</t>
+          <t>GAMOIW</t>
         </is>
       </c>
     </row>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>8YQU2X</t>
+          <t>6IH8XL</t>
         </is>
       </c>
     </row>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SAV062</t>
+          <t>3MJBQK</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>MCA2LM</t>
+          <t>14S52S</t>
         </is>
       </c>
     </row>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>KHJ72D</t>
+          <t>XXX6MH</t>
         </is>
       </c>
     </row>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>GF5G8K</t>
+          <t>5O9DED</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>8ZS54N</t>
+          <t>HH6L77</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>K88PRM</t>
+          <t>HY2TN5</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>OF76Y9</t>
+          <t>QKXTK5</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>F7K68S</t>
+          <t>B0S58K</t>
         </is>
       </c>
     </row>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>69Z0PZ</t>
+          <t>SEMR3K</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>EMJZE2</t>
+          <t>J5I7XR</t>
         </is>
       </c>
     </row>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>65NGRF</t>
+          <t>M5YUZU</t>
         </is>
       </c>
     </row>
@@ -2485,7 +2485,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>OK47SR</t>
+          <t>3KU1W2</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>RZBNP6</t>
+          <t>486XAD</t>
         </is>
       </c>
     </row>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>XXY7OT</t>
+          <t>YGM1CR</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>SPA8VR</t>
+          <t>8QBPI3</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>968QD4</t>
+          <t>PC2QR6</t>
         </is>
       </c>
     </row>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>E29TYR</t>
+          <t>QWK3IP</t>
         </is>
       </c>
     </row>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>8YKXJJ</t>
+          <t>BS5OXF</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>XIHJO7</t>
+          <t>0OO46F</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>EBEBET</t>
+          <t>N6XJPZ</t>
         </is>
       </c>
     </row>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>VKBY5S</t>
+          <t>Z1YB9N</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ZEV2HB</t>
+          <t>FD3OGQ</t>
         </is>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>YXSEWV</t>
+          <t>R785P6</t>
         </is>
       </c>
     </row>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>YTN2SX</t>
+          <t>OGUJSB</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>GCUCBW</t>
+          <t>NAILN0</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>KQRBUP</t>
+          <t>2IDEZ9</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>4U82MB</t>
+          <t>4949VJ</t>
         </is>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>9D9BFV</t>
+          <t>PLKBES</t>
         </is>
       </c>
     </row>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>RUJ6YZ</t>
+          <t>GQGVJ1</t>
         </is>
       </c>
     </row>
@@ -2794,7 +2794,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>DSRMBJ</t>
+          <t>3MGWII</t>
         </is>
       </c>
     </row>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>LIYJK2</t>
+          <t>ZRM04C</t>
         </is>
       </c>
     </row>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>9HLFR5</t>
+          <t>8RUWW6</t>
         </is>
       </c>
     </row>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>RO2J7Y</t>
+          <t>WR72LS</t>
         </is>
       </c>
     </row>
@@ -2864,7 +2864,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>8G6WZP</t>
+          <t>DO7DE5</t>
         </is>
       </c>
     </row>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>78CGAD</t>
+          <t>JOF2UM</t>
         </is>
       </c>
     </row>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>T2M3YK</t>
+          <t>Q53IVP</t>
         </is>
       </c>
     </row>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>E72H6X</t>
+          <t>1VLNRH</t>
         </is>
       </c>
     </row>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>U7R152</t>
+          <t>6XGV0G</t>
         </is>
       </c>
     </row>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>JT06WX</t>
+          <t>EH95H9</t>
         </is>
       </c>
     </row>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>GSKPDC</t>
+          <t>RMN9XJ</t>
         </is>
       </c>
     </row>
@@ -2990,7 +2990,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>6YJXIC</t>
+          <t>D7JK6C</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>O1GLDW</t>
+          <t>OSDGP4</t>
         </is>
       </c>
     </row>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>8DI9VR</t>
+          <t>YSE829</t>
         </is>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>WLDK3L</t>
+          <t>Y18HDG</t>
         </is>
       </c>
     </row>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>D21BVY</t>
+          <t>80503Z</t>
         </is>
       </c>
     </row>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>RLR428</t>
+          <t>NCU3GJ</t>
         </is>
       </c>
     </row>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>GGS551</t>
+          <t>U3IWUI</t>
         </is>
       </c>
     </row>
@@ -3109,7 +3109,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>AKREMB</t>
+          <t>XTJ1WV</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>7D73TS</t>
+          <t>WCXIOI</t>
         </is>
       </c>
     </row>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>BZOSKF</t>
+          <t>P3F6TR</t>
         </is>
       </c>
     </row>
@@ -3160,7 +3160,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>9CY201</t>
+          <t>LJB4RW</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>CFMFMB</t>
+          <t>6C6Y24</t>
         </is>
       </c>
     </row>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>ZKMQEN</t>
+          <t>QXY4XI</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>VZNV4W</t>
+          <t>0Z4FJ3</t>
         </is>
       </c>
     </row>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>BAU0DY</t>
+          <t>V8Y4S2</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>OY1XDE</t>
+          <t>OJNDJE</t>
         </is>
       </c>
     </row>
@@ -3263,7 +3263,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>4Q2MQ5</t>
+          <t>M18C3I</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>4JOI0D</t>
+          <t>PXVAH9</t>
         </is>
       </c>
     </row>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>XM6OTX</t>
+          <t>L9WFOB</t>
         </is>
       </c>
     </row>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>F0WRL6</t>
+          <t>7TJE5B</t>
         </is>
       </c>
     </row>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>UT07WP</t>
+          <t>1A5KDW</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>M9330H</t>
+          <t>EU4INJ</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>VTPFM6</t>
+          <t>9AWPC8</t>
         </is>
       </c>
     </row>
@@ -3383,7 +3383,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>0U51VY</t>
+          <t>47SULJ</t>
         </is>
       </c>
     </row>
@@ -3400,7 +3400,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>UGGD2D</t>
+          <t>BXAG6H</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>6HSNWB</t>
+          <t>IQWRXO</t>
         </is>
       </c>
     </row>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>C9XX2D</t>
+          <t>R3HKBD</t>
         </is>
       </c>
     </row>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>W0EMDH</t>
+          <t>SZCE6G</t>
         </is>
       </c>
     </row>
@@ -3468,7 +3468,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>DB6DVX</t>
+          <t>SDXNM0</t>
         </is>
       </c>
     </row>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>ZHFYGR</t>
+          <t>6Y5QF8</t>
         </is>
       </c>
     </row>
@@ -3502,7 +3502,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>JTHYUR</t>
+          <t>NS1Q65</t>
         </is>
       </c>
     </row>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>6VHQNE</t>
+          <t>606YQ1</t>
         </is>
       </c>
     </row>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>MASMFU</t>
+          <t>ZZ6PRR</t>
         </is>
       </c>
     </row>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>FYVT4S</t>
+          <t>XTL1J6</t>
         </is>
       </c>
     </row>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>7P5FXL</t>
+          <t>NPN6CD</t>
         </is>
       </c>
     </row>
@@ -3587,7 +3587,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>6V88UA</t>
+          <t>5STK63</t>
         </is>
       </c>
     </row>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>HN5SBM</t>
+          <t>THPOO5</t>
         </is>
       </c>
     </row>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Y5370J</t>
+          <t>M7V6DF</t>
         </is>
       </c>
     </row>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>6VZ0G2</t>
+          <t>Q56UHV</t>
         </is>
       </c>
     </row>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>5XUASI</t>
+          <t>THFZ7H</t>
         </is>
       </c>
     </row>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>AWWIFZ</t>
+          <t>OM6GEA</t>
         </is>
       </c>
     </row>
@@ -3689,7 +3689,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>PSG821</t>
+          <t>IKGLRB</t>
         </is>
       </c>
     </row>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>B13O0J</t>
+          <t>Z6MOCT</t>
         </is>
       </c>
     </row>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>RBPGE4</t>
+          <t>0XO4RY</t>
         </is>
       </c>
     </row>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>GK0HJN</t>
+          <t>I78A5U</t>
         </is>
       </c>
     </row>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>IX2IOR</t>
+          <t>E29MPB</t>
         </is>
       </c>
     </row>
@@ -3774,7 +3774,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>ILBNYU</t>
+          <t>5L602M</t>
         </is>
       </c>
     </row>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>PDACKI</t>
+          <t>VY2WEX</t>
         </is>
       </c>
     </row>
@@ -3808,7 +3808,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>VEQ81I</t>
+          <t>YUHLH6</t>
         </is>
       </c>
     </row>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>BZ0ONW</t>
+          <t>QMRODW</t>
         </is>
       </c>
     </row>
@@ -3842,7 +3842,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>JY43AO</t>
+          <t>TP11HI</t>
         </is>
       </c>
     </row>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>R33AL1</t>
+          <t>SW0DG2</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>VD570W</t>
+          <t>FZF4O1</t>
         </is>
       </c>
     </row>
@@ -3894,7 +3894,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>HJLKBQ</t>
+          <t>IG74MD</t>
         </is>
       </c>
     </row>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>ORNIBD</t>
+          <t>ETN10J</t>
         </is>
       </c>
     </row>
@@ -3928,7 +3928,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>BI6ACF</t>
+          <t>6LMV4N</t>
         </is>
       </c>
     </row>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>S43S5F</t>
+          <t>LSQ8CO</t>
         </is>
       </c>
     </row>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>LB420T</t>
+          <t>KWXD7E</t>
         </is>
       </c>
     </row>
@@ -3979,7 +3979,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>XPR81G</t>
+          <t>QRWTS4</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>V3LAWH</t>
+          <t>GJ5T8P</t>
         </is>
       </c>
     </row>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>LCIEJ6</t>
+          <t>OYOKYW</t>
         </is>
       </c>
     </row>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>YCXZOC</t>
+          <t>JGO80M</t>
         </is>
       </c>
     </row>
@@ -4048,7 +4048,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>0B8LFS</t>
+          <t>9FPH80</t>
         </is>
       </c>
     </row>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>6RJ5Y9</t>
+          <t>GU7XTV</t>
         </is>
       </c>
     </row>
@@ -4082,7 +4082,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>V3WA8F</t>
+          <t>VS1SAA</t>
         </is>
       </c>
     </row>
@@ -4099,7 +4099,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>OJ2695</t>
+          <t>W8OB3E</t>
         </is>
       </c>
     </row>
@@ -4117,7 +4117,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>M9NA6M</t>
+          <t>AEUOOM</t>
         </is>
       </c>
     </row>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>3W43SG</t>
+          <t>CYIUY2</t>
         </is>
       </c>
     </row>
@@ -4151,7 +4151,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>28LI4E</t>
+          <t>TJY3AK</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>QMI413</t>
+          <t>VHC8E6</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>KPYS6O</t>
+          <t>F03UUC</t>
         </is>
       </c>
     </row>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>T80QKS</t>
+          <t>9B9PA8</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>W4L43L</t>
+          <t>8GJRDW</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>CWK9XA</t>
+          <t>MZN0VI</t>
         </is>
       </c>
     </row>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>AKKFKX</t>
+          <t>G3Y1I3</t>
         </is>
       </c>
     </row>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>JHZFQW</t>
+          <t>USNW88</t>
         </is>
       </c>
     </row>
@@ -4289,7 +4289,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>U0HKT1</t>
+          <t>Z2HXRG</t>
         </is>
       </c>
     </row>
@@ -4306,7 +4306,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>JVFUXC</t>
+          <t>YAO6K4</t>
         </is>
       </c>
     </row>
@@ -4323,7 +4323,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>1EAT04</t>
+          <t>J9046F</t>
         </is>
       </c>
     </row>
@@ -4340,7 +4340,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>YCJQ8V</t>
+          <t>SSM1NS</t>
         </is>
       </c>
     </row>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Y065YA</t>
+          <t>2FNNTQ</t>
         </is>
       </c>
     </row>
@@ -4375,7 +4375,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>0TTG9R</t>
+          <t>YUAJUR</t>
         </is>
       </c>
     </row>
@@ -4394,7 +4394,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>KQ00Z1</t>
+          <t>QQJX6J</t>
         </is>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>BG54PY</t>
+          <t>2MGYSX</t>
         </is>
       </c>
     </row>
@@ -4428,7 +4428,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>LBVJP5</t>
+          <t>9NV1VZ</t>
         </is>
       </c>
     </row>
@@ -4445,7 +4445,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>JEA5QW</t>
+          <t>337NKT</t>
         </is>
       </c>
     </row>
@@ -4462,7 +4462,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>8QCBO8</t>
+          <t>1TCPEC</t>
         </is>
       </c>
     </row>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>QMITZK</t>
+          <t>D6F6TV</t>
         </is>
       </c>
     </row>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>N2JT0N</t>
+          <t>85SZWS</t>
         </is>
       </c>
     </row>
@@ -4514,7 +4514,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>I3BPZA</t>
+          <t>UK31UE</t>
         </is>
       </c>
     </row>
@@ -4532,7 +4532,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>CMJD37</t>
+          <t>HQM4JH</t>
         </is>
       </c>
     </row>
@@ -4549,7 +4549,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>DS27G6</t>
+          <t>EHAJCD</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4566,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>JVIX0T</t>
+          <t>46APQM</t>
         </is>
       </c>
     </row>
@@ -4583,7 +4583,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>HNBC72</t>
+          <t>X01DB9</t>
         </is>
       </c>
     </row>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>IYNC55</t>
+          <t>EDXSHM</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>OOOOMH</t>
+          <t>924K8H</t>
         </is>
       </c>
     </row>
@@ -4634,7 +4634,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>6VHPC1</t>
+          <t>SVRSTS</t>
         </is>
       </c>
     </row>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>NPADNC</t>
+          <t>SC5YQB</t>
         </is>
       </c>
     </row>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>EWSNLD</t>
+          <t>D3AJHJ</t>
         </is>
       </c>
     </row>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>EYF4ZH</t>
+          <t>2UD7Y4</t>
         </is>
       </c>
     </row>
@@ -4702,7 +4702,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>S7LH0Z</t>
+          <t>OOKCO1</t>
         </is>
       </c>
     </row>
@@ -4719,7 +4719,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>88DSJE</t>
+          <t>YRUM3G</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>HI71KO</t>
+          <t>XD63XO</t>
         </is>
       </c>
     </row>
@@ -4754,7 +4754,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>8LELV5</t>
+          <t>5X7NN4</t>
         </is>
       </c>
     </row>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>XCDYP6</t>
+          <t>FN39XT</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>KX7KNW</t>
+          <t>LTZGIP</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4806,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>MD683P</t>
+          <t>5UPR2G</t>
         </is>
       </c>
     </row>
@@ -4823,7 +4823,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>3Q72M3</t>
+          <t>GE9BS8</t>
         </is>
       </c>
     </row>
@@ -4840,7 +4840,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>3AUF12</t>
+          <t>L91VBX</t>
         </is>
       </c>
     </row>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>JCMFA2</t>
+          <t>1TGK3G</t>
         </is>
       </c>
     </row>
@@ -4874,7 +4874,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>8QNTBB</t>
+          <t>RWQVKQ</t>
         </is>
       </c>
     </row>
@@ -4891,7 +4891,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>M40DNN</t>
+          <t>M7624E</t>
         </is>
       </c>
     </row>
@@ -4908,7 +4908,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>62YYT3</t>
+          <t>Q05RSB</t>
         </is>
       </c>
     </row>
@@ -4925,7 +4925,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Y8RFBJ</t>
+          <t>OS3W9K</t>
         </is>
       </c>
     </row>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>APM6BB</t>
+          <t>D6503B</t>
         </is>
       </c>
     </row>
@@ -4960,7 +4960,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>SBG4VL</t>
+          <t>2XNZKT</t>
         </is>
       </c>
     </row>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>HJKNE5</t>
+          <t>M6A0RD</t>
         </is>
       </c>
     </row>
@@ -4994,7 +4994,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>TPZZPX</t>
+          <t>P6NO31</t>
         </is>
       </c>
     </row>
@@ -5011,7 +5011,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>X142AC</t>
+          <t>BK926N</t>
         </is>
       </c>
     </row>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>ZHYA6E</t>
+          <t>PEPCF7</t>
         </is>
       </c>
     </row>
@@ -5045,7 +5045,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>WTI4UN</t>
+          <t>5VY3CY</t>
         </is>
       </c>
     </row>
@@ -5063,7 +5063,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>BPKSPO</t>
+          <t>8DDYYC</t>
         </is>
       </c>
     </row>
@@ -5080,7 +5080,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>7Q1F0R</t>
+          <t>TFMBHB</t>
         </is>
       </c>
     </row>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>WYV0MR</t>
+          <t>Q8S3VV</t>
         </is>
       </c>
     </row>
@@ -5114,7 +5114,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>9JUHST</t>
+          <t>XM50Q9</t>
         </is>
       </c>
     </row>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>63JQHK</t>
+          <t>UJKIOO</t>
         </is>
       </c>
     </row>
@@ -5148,7 +5148,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>WNJMMJ</t>
+          <t>EN4BYI</t>
         </is>
       </c>
     </row>
@@ -5165,7 +5165,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>0XNMX8</t>
+          <t>R4QMX5</t>
         </is>
       </c>
     </row>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>OEW1XN</t>
+          <t>OZS5N0</t>
         </is>
       </c>
     </row>
@@ -5199,7 +5199,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>INGOOM</t>
+          <t>6TO7FI</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>ENC1ZG</t>
+          <t>SOEH28</t>
         </is>
       </c>
     </row>
@@ -5233,7 +5233,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>RNOBHT</t>
+          <t>F9KSU6</t>
         </is>
       </c>
     </row>
@@ -5250,7 +5250,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>E40E1C</t>
+          <t>2M0K2M</t>
         </is>
       </c>
     </row>
@@ -5267,7 +5267,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>YDZBEE</t>
+          <t>GMRWP4</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5286,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>2AB822</t>
+          <t>ZVJXCA</t>
         </is>
       </c>
     </row>
@@ -5303,7 +5303,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Y3Z49X</t>
+          <t>LLC3W8</t>
         </is>
       </c>
     </row>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>C02CWB</t>
+          <t>U9XUFI</t>
         </is>
       </c>
     </row>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>NMRGEJ</t>
+          <t>8C5IPB</t>
         </is>
       </c>
     </row>
@@ -5354,7 +5354,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>AIGW4M</t>
+          <t>OJ2ZBQ</t>
         </is>
       </c>
     </row>
@@ -5371,7 +5371,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>D6TJBX</t>
+          <t>6ARW48</t>
         </is>
       </c>
     </row>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>82KJMR</t>
+          <t>XG9AAM</t>
         </is>
       </c>
     </row>
@@ -5405,7 +5405,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>NAA27V</t>
+          <t>PBT9DB</t>
         </is>
       </c>
     </row>
@@ -5422,7 +5422,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>52BZ2O</t>
+          <t>BWS7VA</t>
         </is>
       </c>
     </row>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>U5YXR6</t>
+          <t>HY8D4A</t>
         </is>
       </c>
     </row>
@@ -5456,7 +5456,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>JK89FK</t>
+          <t>3YB0S0</t>
         </is>
       </c>
     </row>
@@ -5474,7 +5474,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>FNEC2L</t>
+          <t>9KTOIA</t>
         </is>
       </c>
     </row>
@@ -5491,7 +5491,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>JLFK0Y</t>
+          <t>OOLXEW</t>
         </is>
       </c>
     </row>
@@ -5508,7 +5508,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>BUWRTI</t>
+          <t>PM9TRW</t>
         </is>
       </c>
     </row>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>3M7J1W</t>
+          <t>VABOM5</t>
         </is>
       </c>
     </row>
@@ -5542,7 +5542,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>M4POR3</t>
+          <t>56RTQD</t>
         </is>
       </c>
     </row>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>3QRLC2</t>
+          <t>UG70YM</t>
         </is>
       </c>
     </row>
@@ -5576,7 +5576,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>D1ANSL</t>
+          <t>B9T4LK</t>
         </is>
       </c>
     </row>
@@ -5594,7 +5594,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Q0WO2S</t>
+          <t>C08UYK</t>
         </is>
       </c>
     </row>

--- a/Actual Coding/Francesco_posts.xlsx
+++ b/Actual Coding/Francesco_posts.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>JGPHFW</t>
+          <t>I7C8C9</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ANJTL9</t>
+          <t>QRZEDJ</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>6ATSE9</t>
+          <t>KXAPBW</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>XL7ZCM</t>
+          <t>WCBJT6</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>YKYM6C</t>
+          <t>HI7NMR</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TFCV0Y</t>
+          <t>UB7O8J</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TIFUPN</t>
+          <t>ZX68WK</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>AUVWD4</t>
+          <t>3PQZYA</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4OLPHL</t>
+          <t>30TCTL</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3YUQCM</t>
+          <t>MR7C0R</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>EM02W8</t>
+          <t>EJKKAU</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NN0USP</t>
+          <t>RAU62A</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>20VBVX</t>
+          <t>21U4L4</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>8BSQ8Y</t>
+          <t>DF7LO8</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>UYMTFX</t>
+          <t>4A2GPD</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DL5RKR</t>
+          <t>I6V0MG</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>R3WH2F</t>
+          <t>0WTJ1U</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>B517QK</t>
+          <t>1P1IEV</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AEEQ6M</t>
+          <t>7FIZDH</t>
         </is>
       </c>
     </row>
@@ -790,7 +790,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>9OABQO</t>
+          <t>KIDAXE</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>8T8PIW</t>
+          <t>O8QQA7</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>GG98VY</t>
+          <t>DTENCZ</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>URK9F8</t>
+          <t>167RZ1</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>7IDW1V</t>
+          <t>3D8DMU</t>
         </is>
       </c>
     </row>
@@ -875,7 +875,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>8FL4DB</t>
+          <t>4MOV97</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EH9X8V</t>
+          <t>PYG18V</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3ZU9B6</t>
+          <t>79XORS</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Q2722U</t>
+          <t>GBHZQQ</t>
         </is>
       </c>
     </row>
@@ -943,7 +943,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>D2NX5A</t>
+          <t>EPY5UG</t>
         </is>
       </c>
     </row>
@@ -960,7 +960,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ZLBK2S</t>
+          <t>GNGUL0</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>WN81EC</t>
+          <t>FI21GO</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>72VK52</t>
+          <t>DC6MCO</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>G8SU1C</t>
+          <t>8V9WJD</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2I65XF</t>
+          <t>EKH9GV</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>WJCBE0</t>
+          <t>4YIHHU</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>3EMNZ1</t>
+          <t>DIM0P2</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>YGZM8Q</t>
+          <t>VN4N2U</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MMFC66</t>
+          <t>F11HA0</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>QC3C4S</t>
+          <t>IXVC0B</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NCSVSG</t>
+          <t>LFKOGQ</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>WTXB6Y</t>
+          <t>IDB46C</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>E83A83</t>
+          <t>AL76HK</t>
         </is>
       </c>
     </row>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>T3MEG7</t>
+          <t>83Q0EZ</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>MH0WYT</t>
+          <t>FFN9LM</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>20VYHD</t>
+          <t>4IHW1N</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>4Z08QG</t>
+          <t>985MIQ</t>
         </is>
       </c>
     </row>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>5X256O</t>
+          <t>Z0R25N</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0MQYRD</t>
+          <t>JXMUOY</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>9P6GOP</t>
+          <t>LA5JL7</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>7W7Y04</t>
+          <t>EYNKKC</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ISZQDH</t>
+          <t>MFC3IP</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>J1N8XG</t>
+          <t>429NGL</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>H93C7Z</t>
+          <t>ZCHBEM</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>JQTPH8</t>
+          <t>6VHX8V</t>
         </is>
       </c>
     </row>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>YKBDJR</t>
+          <t>W9XWGW</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>R43DA6</t>
+          <t>WHR2H5</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>N94H5R</t>
+          <t>UW4X4W</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>5G6SPS</t>
+          <t>VAVPG5</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>PFD2BN</t>
+          <t>43J8SU</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>QSXQMP</t>
+          <t>5AP4J3</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>PM9SL5</t>
+          <t>HI4VED</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>B37VFS</t>
+          <t>3W745W</t>
         </is>
       </c>
     </row>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>RFK9M9</t>
+          <t>VWT4T0</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>J4LLEM</t>
+          <t>2YUP88</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>KE4F8Z</t>
+          <t>B9NRNA</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>YXYO8T</t>
+          <t>VMT8B9</t>
         </is>
       </c>
     </row>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>V97EIX</t>
+          <t>1WVEKD</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>6SJ6EO</t>
+          <t>6M87G5</t>
         </is>
       </c>
     </row>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>H7DQ24</t>
+          <t>KSBUSK</t>
         </is>
       </c>
     </row>
@@ -1645,7 +1645,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SBEF2Y</t>
+          <t>CVH51T</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ZVZGSF</t>
+          <t>S6MYLX</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>FG9YGP</t>
+          <t>F0O75J</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>UPRL99</t>
+          <t>X9LX0C</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>45W41F</t>
+          <t>7Q0YSZ</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>T0QEF1</t>
+          <t>SYQUK2</t>
         </is>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>MF77HQ</t>
+          <t>ZVDMRP</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>4RRH98</t>
+          <t>9R09ZG</t>
         </is>
       </c>
     </row>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CWCF0M</t>
+          <t>V90BL4</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>3BQ0M6</t>
+          <t>Q8OH7J</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>HBZIYY</t>
+          <t>F047TI</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>HYRO6V</t>
+          <t>2RGAUS</t>
         </is>
       </c>
     </row>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>LC79C6</t>
+          <t>E2OVFQ</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>YGA4DK</t>
+          <t>5PEHPZ</t>
         </is>
       </c>
     </row>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>TW4KAA</t>
+          <t>18QCJM</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>QCCTNB</t>
+          <t>3H5TLB</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>QFT346</t>
+          <t>1SB9LJ</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>XNPW0L</t>
+          <t>L18JAH</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>TMLZZ6</t>
+          <t>W3HUP1</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>78SP5F</t>
+          <t>6VHHY8</t>
         </is>
       </c>
     </row>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>S7EW3B</t>
+          <t>533TTO</t>
         </is>
       </c>
     </row>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>OZQKQ3</t>
+          <t>BCM8UT</t>
         </is>
       </c>
     </row>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>GX7M0S</t>
+          <t>JKBOE3</t>
         </is>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>WU77BQ</t>
+          <t>RYNSWU</t>
         </is>
       </c>
     </row>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>LP5Q8M</t>
+          <t>JTFCG3</t>
         </is>
       </c>
     </row>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>UIRR32</t>
+          <t>2WJTMJ</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>T4M7PG</t>
+          <t>9VRG7C</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>VKQFD0</t>
+          <t>NQLLEG</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>55ES28</t>
+          <t>WPNGMJ</t>
         </is>
       </c>
     </row>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>AJ8IOH</t>
+          <t>5CSD1C</t>
         </is>
       </c>
     </row>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>G16KZX</t>
+          <t>3OA0R9</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>9JMLQH</t>
+          <t>ME2HBS</t>
         </is>
       </c>
     </row>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>OBQ2Y1</t>
+          <t>UZBCI7</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>R1G11I</t>
+          <t>6LYQA7</t>
         </is>
       </c>
     </row>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>MC5MG2</t>
+          <t>TXYXQQ</t>
         </is>
       </c>
     </row>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>TZTIMO</t>
+          <t>TIJXHV</t>
         </is>
       </c>
     </row>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>GAMOIW</t>
+          <t>FETEMN</t>
         </is>
       </c>
     </row>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>6IH8XL</t>
+          <t>2TUY6E</t>
         </is>
       </c>
     </row>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>3MJBQK</t>
+          <t>DBN5GZ</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>14S52S</t>
+          <t>ORNQAJ</t>
         </is>
       </c>
     </row>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>XXX6MH</t>
+          <t>N6T3ZB</t>
         </is>
       </c>
     </row>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>5O9DED</t>
+          <t>4JU5BY</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>HH6L77</t>
+          <t>BNCZW8</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>HY2TN5</t>
+          <t>BIRZN7</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>QKXTK5</t>
+          <t>FZKA6J</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>B0S58K</t>
+          <t>S3MLLR</t>
         </is>
       </c>
     </row>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>SEMR3K</t>
+          <t>N6L3N2</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>J5I7XR</t>
+          <t>LTU9CP</t>
         </is>
       </c>
     </row>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>M5YUZU</t>
+          <t>9B10UR</t>
         </is>
       </c>
     </row>
@@ -2485,7 +2485,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>3KU1W2</t>
+          <t>R4YFBS</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>486XAD</t>
+          <t>K4XGQO</t>
         </is>
       </c>
     </row>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>YGM1CR</t>
+          <t>H4KPOQ</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>8QBPI3</t>
+          <t>3Q5XK0</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>PC2QR6</t>
+          <t>OIU9ZK</t>
         </is>
       </c>
     </row>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>QWK3IP</t>
+          <t>WGP0L1</t>
         </is>
       </c>
     </row>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>BS5OXF</t>
+          <t>RI2PQ2</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>0OO46F</t>
+          <t>VEIR9F</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>N6XJPZ</t>
+          <t>Y3F6X6</t>
         </is>
       </c>
     </row>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Z1YB9N</t>
+          <t>CLLOI3</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>FD3OGQ</t>
+          <t>WRP1JM</t>
         </is>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>R785P6</t>
+          <t>8EKNSD</t>
         </is>
       </c>
     </row>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>OGUJSB</t>
+          <t>G7JHG6</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>NAILN0</t>
+          <t>4Z4R7U</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2IDEZ9</t>
+          <t>G99B8Z</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>4949VJ</t>
+          <t>LY0RKU</t>
         </is>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>PLKBES</t>
+          <t>T4VT8I</t>
         </is>
       </c>
     </row>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>GQGVJ1</t>
+          <t>GWKC62</t>
         </is>
       </c>
     </row>
@@ -2794,7 +2794,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>3MGWII</t>
+          <t>XPA9GI</t>
         </is>
       </c>
     </row>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>ZRM04C</t>
+          <t>X8IO8N</t>
         </is>
       </c>
     </row>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>8RUWW6</t>
+          <t>7I2MYY</t>
         </is>
       </c>
     </row>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>WR72LS</t>
+          <t>01ZC3F</t>
         </is>
       </c>
     </row>
@@ -2864,7 +2864,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>DO7DE5</t>
+          <t>8QVE5U</t>
         </is>
       </c>
     </row>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>JOF2UM</t>
+          <t>QMFJ1R</t>
         </is>
       </c>
     </row>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Q53IVP</t>
+          <t>NZXFG6</t>
         </is>
       </c>
     </row>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>1VLNRH</t>
+          <t>QHZGVO</t>
         </is>
       </c>
     </row>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>6XGV0G</t>
+          <t>OJ1F7F</t>
         </is>
       </c>
     </row>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>EH95H9</t>
+          <t>I8GSIE</t>
         </is>
       </c>
     </row>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>RMN9XJ</t>
+          <t>9APL6E</t>
         </is>
       </c>
     </row>
@@ -2990,7 +2990,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>D7JK6C</t>
+          <t>9NVP1Y</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>OSDGP4</t>
+          <t>YY2891</t>
         </is>
       </c>
     </row>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>YSE829</t>
+          <t>OQR6U2</t>
         </is>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Y18HDG</t>
+          <t>LBEUT6</t>
         </is>
       </c>
     </row>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>80503Z</t>
+          <t>LRQD8Y</t>
         </is>
       </c>
     </row>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>NCU3GJ</t>
+          <t>DGCI0N</t>
         </is>
       </c>
     </row>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>U3IWUI</t>
+          <t>MZE2OA</t>
         </is>
       </c>
     </row>
@@ -3109,7 +3109,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>XTJ1WV</t>
+          <t>XNPFD2</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>WCXIOI</t>
+          <t>YQJ84Q</t>
         </is>
       </c>
     </row>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>P3F6TR</t>
+          <t>9B14QT</t>
         </is>
       </c>
     </row>
@@ -3160,7 +3160,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>LJB4RW</t>
+          <t>RIXP1F</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>6C6Y24</t>
+          <t>MK17NH</t>
         </is>
       </c>
     </row>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>QXY4XI</t>
+          <t>3DGGCM</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>0Z4FJ3</t>
+          <t>4W3RPI</t>
         </is>
       </c>
     </row>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>V8Y4S2</t>
+          <t>RQXT7F</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>OJNDJE</t>
+          <t>FEV23X</t>
         </is>
       </c>
     </row>
@@ -3263,7 +3263,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>M18C3I</t>
+          <t>2WXYMR</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>PXVAH9</t>
+          <t>JZ95J7</t>
         </is>
       </c>
     </row>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>L9WFOB</t>
+          <t>QM25VX</t>
         </is>
       </c>
     </row>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>7TJE5B</t>
+          <t>UFBJJF</t>
         </is>
       </c>
     </row>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>1A5KDW</t>
+          <t>5GDO6Z</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>EU4INJ</t>
+          <t>V9YF8Q</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>9AWPC8</t>
+          <t>4ZS89I</t>
         </is>
       </c>
     </row>
@@ -3383,7 +3383,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>47SULJ</t>
+          <t>MEUVQQ</t>
         </is>
       </c>
     </row>
@@ -3400,7 +3400,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>BXAG6H</t>
+          <t>SQZY5Z</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>IQWRXO</t>
+          <t>QLBKIB</t>
         </is>
       </c>
     </row>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>R3HKBD</t>
+          <t>MXBR8J</t>
         </is>
       </c>
     </row>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>SZCE6G</t>
+          <t>PCEEHE</t>
         </is>
       </c>
     </row>
@@ -3468,7 +3468,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>SDXNM0</t>
+          <t>2B1XTT</t>
         </is>
       </c>
     </row>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>6Y5QF8</t>
+          <t>6G2FLT</t>
         </is>
       </c>
     </row>
@@ -3502,7 +3502,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>NS1Q65</t>
+          <t>G7JD8A</t>
         </is>
       </c>
     </row>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>606YQ1</t>
+          <t>JE4NJ1</t>
         </is>
       </c>
     </row>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>ZZ6PRR</t>
+          <t>2RG73Z</t>
         </is>
       </c>
     </row>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>XTL1J6</t>
+          <t>6LOM2A</t>
         </is>
       </c>
     </row>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>NPN6CD</t>
+          <t>K91K19</t>
         </is>
       </c>
     </row>
@@ -3587,7 +3587,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>5STK63</t>
+          <t>II0DOH</t>
         </is>
       </c>
     </row>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>THPOO5</t>
+          <t>BHXKI4</t>
         </is>
       </c>
     </row>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>M7V6DF</t>
+          <t>H0G6KN</t>
         </is>
       </c>
     </row>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Q56UHV</t>
+          <t>8AMSRN</t>
         </is>
       </c>
     </row>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>THFZ7H</t>
+          <t>FX73RD</t>
         </is>
       </c>
     </row>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>OM6GEA</t>
+          <t>VXQKY9</t>
         </is>
       </c>
     </row>
@@ -3689,7 +3689,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>IKGLRB</t>
+          <t>ZY6TN9</t>
         </is>
       </c>
     </row>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Z6MOCT</t>
+          <t>04A5WJ</t>
         </is>
       </c>
     </row>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>0XO4RY</t>
+          <t>5OMMLT</t>
         </is>
       </c>
     </row>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>I78A5U</t>
+          <t>C7DEO6</t>
         </is>
       </c>
     </row>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>E29MPB</t>
+          <t>YL8ZAN</t>
         </is>
       </c>
     </row>
@@ -3774,7 +3774,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>5L602M</t>
+          <t>5RJQN7</t>
         </is>
       </c>
     </row>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>VY2WEX</t>
+          <t>4JVIRD</t>
         </is>
       </c>
     </row>
@@ -3808,7 +3808,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>YUHLH6</t>
+          <t>1GIB5A</t>
         </is>
       </c>
     </row>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>QMRODW</t>
+          <t>340WWO</t>
         </is>
       </c>
     </row>
@@ -3842,7 +3842,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>TP11HI</t>
+          <t>HQTZY1</t>
         </is>
       </c>
     </row>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>SW0DG2</t>
+          <t>1KAKBA</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>FZF4O1</t>
+          <t>DOZ3JA</t>
         </is>
       </c>
     </row>
@@ -3894,7 +3894,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>IG74MD</t>
+          <t>32Y0AS</t>
         </is>
       </c>
     </row>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>ETN10J</t>
+          <t>N8CQP8</t>
         </is>
       </c>
     </row>
@@ -3928,7 +3928,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>6LMV4N</t>
+          <t>0MDJDC</t>
         </is>
       </c>
     </row>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>LSQ8CO</t>
+          <t>ZCYY51</t>
         </is>
       </c>
     </row>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>KWXD7E</t>
+          <t>CPMNN2</t>
         </is>
       </c>
     </row>
@@ -3979,7 +3979,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>QRWTS4</t>
+          <t>O0Z7EI</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>GJ5T8P</t>
+          <t>2EAMS5</t>
         </is>
       </c>
     </row>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>OYOKYW</t>
+          <t>BTGWPX</t>
         </is>
       </c>
     </row>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>JGO80M</t>
+          <t>AM08IR</t>
         </is>
       </c>
     </row>
@@ -4048,7 +4048,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>9FPH80</t>
+          <t>EQA060</t>
         </is>
       </c>
     </row>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>GU7XTV</t>
+          <t>YD6N43</t>
         </is>
       </c>
     </row>
@@ -4082,7 +4082,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>VS1SAA</t>
+          <t>PJQTUG</t>
         </is>
       </c>
     </row>
@@ -4099,7 +4099,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>W8OB3E</t>
+          <t>4ABLKB</t>
         </is>
       </c>
     </row>
@@ -4117,7 +4117,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>AEUOOM</t>
+          <t>VQOIG0</t>
         </is>
       </c>
     </row>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>CYIUY2</t>
+          <t>G2IL9A</t>
         </is>
       </c>
     </row>
@@ -4151,7 +4151,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>TJY3AK</t>
+          <t>9AFGNX</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>VHC8E6</t>
+          <t>S9QK8V</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>F03UUC</t>
+          <t>A3H0PU</t>
         </is>
       </c>
     </row>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>9B9PA8</t>
+          <t>RCBUOI</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>8GJRDW</t>
+          <t>FHMJZF</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>MZN0VI</t>
+          <t>3M0XMB</t>
         </is>
       </c>
     </row>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>G3Y1I3</t>
+          <t>I16498</t>
         </is>
       </c>
     </row>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>USNW88</t>
+          <t>2KB3DA</t>
         </is>
       </c>
     </row>
@@ -4289,7 +4289,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Z2HXRG</t>
+          <t>PB0J51</t>
         </is>
       </c>
     </row>
@@ -4306,7 +4306,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>YAO6K4</t>
+          <t>M4AC5I</t>
         </is>
       </c>
     </row>
@@ -4323,7 +4323,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>J9046F</t>
+          <t>EDUWUZ</t>
         </is>
       </c>
     </row>
@@ -4340,7 +4340,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>SSM1NS</t>
+          <t>5QT24T</t>
         </is>
       </c>
     </row>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>2FNNTQ</t>
+          <t>8QWHPP</t>
         </is>
       </c>
     </row>
@@ -4375,7 +4375,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>YUAJUR</t>
+          <t>69OUUM</t>
         </is>
       </c>
     </row>
@@ -4394,7 +4394,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>QQJX6J</t>
+          <t>CXIRKO</t>
         </is>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>2MGYSX</t>
+          <t>MO5CC9</t>
         </is>
       </c>
     </row>
@@ -4428,7 +4428,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>9NV1VZ</t>
+          <t>UD20W4</t>
         </is>
       </c>
     </row>
@@ -4445,7 +4445,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>337NKT</t>
+          <t>DUUFS5</t>
         </is>
       </c>
     </row>
@@ -4462,7 +4462,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>1TCPEC</t>
+          <t>0OYXS5</t>
         </is>
       </c>
     </row>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>D6F6TV</t>
+          <t>XBV5PE</t>
         </is>
       </c>
     </row>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>85SZWS</t>
+          <t>82YX99</t>
         </is>
       </c>
     </row>
@@ -4514,7 +4514,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>UK31UE</t>
+          <t>IOSZMN</t>
         </is>
       </c>
     </row>
@@ -4532,7 +4532,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>HQM4JH</t>
+          <t>ELWJ6S</t>
         </is>
       </c>
     </row>
@@ -4549,7 +4549,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>EHAJCD</t>
+          <t>H1L8BQ</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4566,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>46APQM</t>
+          <t>R1EXG8</t>
         </is>
       </c>
     </row>
@@ -4583,7 +4583,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>X01DB9</t>
+          <t>926VCD</t>
         </is>
       </c>
     </row>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>EDXSHM</t>
+          <t>4PUE8X</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>924K8H</t>
+          <t>TEF801</t>
         </is>
       </c>
     </row>
@@ -4634,7 +4634,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>SVRSTS</t>
+          <t>Z2IH1D</t>
         </is>
       </c>
     </row>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>SC5YQB</t>
+          <t>EP9B1V</t>
         </is>
       </c>
     </row>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>D3AJHJ</t>
+          <t>M4RA1V</t>
         </is>
       </c>
     </row>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>2UD7Y4</t>
+          <t>U4KEQU</t>
         </is>
       </c>
     </row>
@@ -4702,7 +4702,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>OOKCO1</t>
+          <t>6NBL3K</t>
         </is>
       </c>
     </row>
@@ -4719,7 +4719,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>YRUM3G</t>
+          <t>K3H96R</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>XD63XO</t>
+          <t>MGOOPQ</t>
         </is>
       </c>
     </row>
@@ -4754,7 +4754,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>5X7NN4</t>
+          <t>QTSS4K</t>
         </is>
       </c>
     </row>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>FN39XT</t>
+          <t>I7N1QK</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>LTZGIP</t>
+          <t>P8GO54</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4806,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>5UPR2G</t>
+          <t>4L0S57</t>
         </is>
       </c>
     </row>
@@ -4823,7 +4823,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>GE9BS8</t>
+          <t>W6PUHB</t>
         </is>
       </c>
     </row>
@@ -4840,7 +4840,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>L91VBX</t>
+          <t>Z2ERPF</t>
         </is>
       </c>
     </row>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>1TGK3G</t>
+          <t>VP85AP</t>
         </is>
       </c>
     </row>
@@ -4874,7 +4874,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>RWQVKQ</t>
+          <t>OLU7G9</t>
         </is>
       </c>
     </row>
@@ -4891,7 +4891,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>M7624E</t>
+          <t>TI5NFZ</t>
         </is>
       </c>
     </row>
@@ -4908,7 +4908,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Q05RSB</t>
+          <t>CPMBET</t>
         </is>
       </c>
     </row>
@@ -4925,7 +4925,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>OS3W9K</t>
+          <t>N30S1G</t>
         </is>
       </c>
     </row>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>D6503B</t>
+          <t>X3F1VH</t>
         </is>
       </c>
     </row>
@@ -4960,7 +4960,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>2XNZKT</t>
+          <t>FDEY5N</t>
         </is>
       </c>
     </row>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>M6A0RD</t>
+          <t>AKUYSM</t>
         </is>
       </c>
     </row>
@@ -4994,7 +4994,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>P6NO31</t>
+          <t>H944DQ</t>
         </is>
       </c>
     </row>
@@ -5011,7 +5011,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>BK926N</t>
+          <t>XCNQOB</t>
         </is>
       </c>
     </row>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>PEPCF7</t>
+          <t>2TQT87</t>
         </is>
       </c>
     </row>
@@ -5045,7 +5045,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>5VY3CY</t>
+          <t>WUNQVB</t>
         </is>
       </c>
     </row>
@@ -5063,7 +5063,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>8DDYYC</t>
+          <t>VQEAAO</t>
         </is>
       </c>
     </row>
@@ -5080,7 +5080,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>TFMBHB</t>
+          <t>YA1YFH</t>
         </is>
       </c>
     </row>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Q8S3VV</t>
+          <t>UVZ588</t>
         </is>
       </c>
     </row>
@@ -5114,7 +5114,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>XM50Q9</t>
+          <t>CGZ5C4</t>
         </is>
       </c>
     </row>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>UJKIOO</t>
+          <t>52V48D</t>
         </is>
       </c>
     </row>
@@ -5148,7 +5148,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>EN4BYI</t>
+          <t>IXMW0E</t>
         </is>
       </c>
     </row>
@@ -5165,7 +5165,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>R4QMX5</t>
+          <t>Q9TANW</t>
         </is>
       </c>
     </row>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>OZS5N0</t>
+          <t>GJHZ2Z</t>
         </is>
       </c>
     </row>
@@ -5199,7 +5199,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>6TO7FI</t>
+          <t>X2AL4J</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>SOEH28</t>
+          <t>WM9VJJ</t>
         </is>
       </c>
     </row>
@@ -5233,7 +5233,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>F9KSU6</t>
+          <t>APMZ2P</t>
         </is>
       </c>
     </row>
@@ -5250,7 +5250,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>2M0K2M</t>
+          <t>9WYGPR</t>
         </is>
       </c>
     </row>
@@ -5267,7 +5267,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>GMRWP4</t>
+          <t>4JI1II</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5286,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>ZVJXCA</t>
+          <t>GVEXYI</t>
         </is>
       </c>
     </row>
@@ -5303,7 +5303,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>LLC3W8</t>
+          <t>F4HVT5</t>
         </is>
       </c>
     </row>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>U9XUFI</t>
+          <t>PBWGDD</t>
         </is>
       </c>
     </row>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>8C5IPB</t>
+          <t>1OZ6HW</t>
         </is>
       </c>
     </row>
@@ -5354,7 +5354,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>OJ2ZBQ</t>
+          <t>SHV1KU</t>
         </is>
       </c>
     </row>
@@ -5371,7 +5371,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>6ARW48</t>
+          <t>MBYW8F</t>
         </is>
       </c>
     </row>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>XG9AAM</t>
+          <t>K969QC</t>
         </is>
       </c>
     </row>
@@ -5405,7 +5405,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>PBT9DB</t>
+          <t>9D5BVL</t>
         </is>
       </c>
     </row>
@@ -5422,7 +5422,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>BWS7VA</t>
+          <t>1FKKHA</t>
         </is>
       </c>
     </row>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>HY8D4A</t>
+          <t>RKG4FP</t>
         </is>
       </c>
     </row>
@@ -5456,7 +5456,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>3YB0S0</t>
+          <t>9RTSF0</t>
         </is>
       </c>
     </row>
@@ -5474,7 +5474,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>9KTOIA</t>
+          <t>H430SF</t>
         </is>
       </c>
     </row>
@@ -5491,7 +5491,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>OOLXEW</t>
+          <t>7VNREX</t>
         </is>
       </c>
     </row>
@@ -5508,7 +5508,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>PM9TRW</t>
+          <t>M971RN</t>
         </is>
       </c>
     </row>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>VABOM5</t>
+          <t>GJBEYJ</t>
         </is>
       </c>
     </row>
@@ -5542,7 +5542,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>56RTQD</t>
+          <t>ZFRZGH</t>
         </is>
       </c>
     </row>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>UG70YM</t>
+          <t>VH6J4U</t>
         </is>
       </c>
     </row>
@@ -5576,7 +5576,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>B9T4LK</t>
+          <t>3QUND7</t>
         </is>
       </c>
     </row>
@@ -5594,7 +5594,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>C08UYK</t>
+          <t>Z15IBB</t>
         </is>
       </c>
     </row>

--- a/Actual Coding/Francesco_posts.xlsx
+++ b/Actual Coding/Francesco_posts.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>I7C8C9</t>
+          <t>O03DWR</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>QRZEDJ</t>
+          <t>H25RG3</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>KXAPBW</t>
+          <t>FRQUMA</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>WCBJT6</t>
+          <t>XXUEJF</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>HI7NMR</t>
+          <t>X9E5IO</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>UB7O8J</t>
+          <t>NH73TE</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ZX68WK</t>
+          <t>1MKOKG</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3PQZYA</t>
+          <t>YSM7JH</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>30TCTL</t>
+          <t>498989</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MR7C0R</t>
+          <t>F84FWH</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>EJKKAU</t>
+          <t>W324GW</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>RAU62A</t>
+          <t>CMVYLS</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>21U4L4</t>
+          <t>HRP3MH</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DF7LO8</t>
+          <t>02RJQQ</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4A2GPD</t>
+          <t>QJSVL2</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>I6V0MG</t>
+          <t>FGUAUD</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0WTJ1U</t>
+          <t>N2B0VH</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1P1IEV</t>
+          <t>H5LXJU</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>7FIZDH</t>
+          <t>CC76V4</t>
         </is>
       </c>
     </row>
@@ -790,7 +790,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>KIDAXE</t>
+          <t>IJTQQ9</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>O8QQA7</t>
+          <t>43J2LC</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DTENCZ</t>
+          <t>DEBWFM</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>167RZ1</t>
+          <t>ZGOEFO</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3D8DMU</t>
+          <t>HNFHZM</t>
         </is>
       </c>
     </row>
@@ -875,7 +875,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4MOV97</t>
+          <t>V18T5H</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PYG18V</t>
+          <t>WD8634</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>79XORS</t>
+          <t>OE34LU</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>GBHZQQ</t>
+          <t>ISNX0N</t>
         </is>
       </c>
     </row>
@@ -943,7 +943,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>EPY5UG</t>
+          <t>HC509Q</t>
         </is>
       </c>
     </row>
@@ -960,7 +960,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>GNGUL0</t>
+          <t>3EPR9K</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>FI21GO</t>
+          <t>NC4NLF</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DC6MCO</t>
+          <t>0A9336</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>8V9WJD</t>
+          <t>YSKY7X</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>EKH9GV</t>
+          <t>OAA43E</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>4YIHHU</t>
+          <t>7Y9O3B</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DIM0P2</t>
+          <t>X3ESPT</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>VN4N2U</t>
+          <t>KVF5IG</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>F11HA0</t>
+          <t>RPX1LT</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>IXVC0B</t>
+          <t>V6BA6B</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>LFKOGQ</t>
+          <t>D9VCX7</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>IDB46C</t>
+          <t>P1CPD5</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>AL76HK</t>
+          <t>0FXPDH</t>
         </is>
       </c>
     </row>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>83Q0EZ</t>
+          <t>X0MABR</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>FFN9LM</t>
+          <t>Y432JX</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>4IHW1N</t>
+          <t>6XZ4ZA</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>985MIQ</t>
+          <t>QLTRA3</t>
         </is>
       </c>
     </row>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Z0R25N</t>
+          <t>5P9XSH</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>JXMUOY</t>
+          <t>69LEF4</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>LA5JL7</t>
+          <t>5B1U6M</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>EYNKKC</t>
+          <t>39QZYN</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>MFC3IP</t>
+          <t>QWZJZH</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>429NGL</t>
+          <t>610QK1</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ZCHBEM</t>
+          <t>I95OGK</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>6VHX8V</t>
+          <t>IP1T6C</t>
         </is>
       </c>
     </row>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>W9XWGW</t>
+          <t>9SEKJ0</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>WHR2H5</t>
+          <t>PNZBUG</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>UW4X4W</t>
+          <t>8VZWCP</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>VAVPG5</t>
+          <t>4HW9N0</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>43J8SU</t>
+          <t>KFK535</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>5AP4J3</t>
+          <t>VQ2EIF</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>HI4VED</t>
+          <t>I3UABI</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>3W745W</t>
+          <t>UZGHDB</t>
         </is>
       </c>
     </row>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>VWT4T0</t>
+          <t>87OKV9</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2YUP88</t>
+          <t>IZ6HNI</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>B9NRNA</t>
+          <t>PJ43FT</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>VMT8B9</t>
+          <t>IJAIF9</t>
         </is>
       </c>
     </row>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1WVEKD</t>
+          <t>D9IQWP</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>6M87G5</t>
+          <t>EFBDS5</t>
         </is>
       </c>
     </row>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>KSBUSK</t>
+          <t>7LT3DW</t>
         </is>
       </c>
     </row>
@@ -1645,7 +1645,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CVH51T</t>
+          <t>8ECSAJ</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>S6MYLX</t>
+          <t>YU0W91</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>F0O75J</t>
+          <t>9X8ER7</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>X9LX0C</t>
+          <t>YD3VTS</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>7Q0YSZ</t>
+          <t>DREXUU</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SYQUK2</t>
+          <t>3IZATQ</t>
         </is>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ZVDMRP</t>
+          <t>9FGFQV</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>9R09ZG</t>
+          <t>0NJ9QN</t>
         </is>
       </c>
     </row>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>V90BL4</t>
+          <t>RP7XTV</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Q8OH7J</t>
+          <t>ME8LR2</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>F047TI</t>
+          <t>IPBXBQ</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2RGAUS</t>
+          <t>RNKE2U</t>
         </is>
       </c>
     </row>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>E2OVFQ</t>
+          <t>CJQUL5</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>5PEHPZ</t>
+          <t>XT9YFC</t>
         </is>
       </c>
     </row>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>18QCJM</t>
+          <t>R9H4Y6</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>3H5TLB</t>
+          <t>HG5WYJ</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>1SB9LJ</t>
+          <t>1STQLH</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>L18JAH</t>
+          <t>96MY3L</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>W3HUP1</t>
+          <t>OOAEK4</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>6VHHY8</t>
+          <t>3I7E4U</t>
         </is>
       </c>
     </row>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>533TTO</t>
+          <t>DYU72R</t>
         </is>
       </c>
     </row>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>BCM8UT</t>
+          <t>VUJFN9</t>
         </is>
       </c>
     </row>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>JKBOE3</t>
+          <t>G1RED9</t>
         </is>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>RYNSWU</t>
+          <t>K2W1O6</t>
         </is>
       </c>
     </row>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>JTFCG3</t>
+          <t>OP1157</t>
         </is>
       </c>
     </row>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2WJTMJ</t>
+          <t>60YXW2</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>9VRG7C</t>
+          <t>1CGHDP</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>NQLLEG</t>
+          <t>KHL0U1</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>WPNGMJ</t>
+          <t>ZB7PAO</t>
         </is>
       </c>
     </row>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>5CSD1C</t>
+          <t>VROAPG</t>
         </is>
       </c>
     </row>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>3OA0R9</t>
+          <t>IMLSKQ</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>ME2HBS</t>
+          <t>WT4RSS</t>
         </is>
       </c>
     </row>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>UZBCI7</t>
+          <t>31LCUG</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>6LYQA7</t>
+          <t>4WD9PM</t>
         </is>
       </c>
     </row>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>TXYXQQ</t>
+          <t>7H98MM</t>
         </is>
       </c>
     </row>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>TIJXHV</t>
+          <t>T8SDFN</t>
         </is>
       </c>
     </row>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>FETEMN</t>
+          <t>HXO2KR</t>
         </is>
       </c>
     </row>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2TUY6E</t>
+          <t>PB5FF4</t>
         </is>
       </c>
     </row>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>DBN5GZ</t>
+          <t>QKSRMJ</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ORNQAJ</t>
+          <t>S8OFBD</t>
         </is>
       </c>
     </row>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>N6T3ZB</t>
+          <t>ESSNJS</t>
         </is>
       </c>
     </row>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>4JU5BY</t>
+          <t>L7KW5F</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>BNCZW8</t>
+          <t>MLILX0</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>BIRZN7</t>
+          <t>4QHNZN</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>FZKA6J</t>
+          <t>25EVDD</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>S3MLLR</t>
+          <t>2UJHO3</t>
         </is>
       </c>
     </row>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>N6L3N2</t>
+          <t>R1IM9I</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>LTU9CP</t>
+          <t>40GL97</t>
         </is>
       </c>
     </row>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>9B10UR</t>
+          <t>N5BN17</t>
         </is>
       </c>
     </row>
@@ -2485,7 +2485,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>R4YFBS</t>
+          <t>M3V4U0</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>K4XGQO</t>
+          <t>DPYUZQ</t>
         </is>
       </c>
     </row>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>H4KPOQ</t>
+          <t>LGXURZ</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>3Q5XK0</t>
+          <t>470RBI</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>OIU9ZK</t>
+          <t>IT9FV6</t>
         </is>
       </c>
     </row>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>WGP0L1</t>
+          <t>D2PZT7</t>
         </is>
       </c>
     </row>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>RI2PQ2</t>
+          <t>A01CV0</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>VEIR9F</t>
+          <t>V09KAF</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Y3F6X6</t>
+          <t>9X8WNC</t>
         </is>
       </c>
     </row>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>CLLOI3</t>
+          <t>FMWT0O</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>WRP1JM</t>
+          <t>ITL8IW</t>
         </is>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>8EKNSD</t>
+          <t>WOR1JJ</t>
         </is>
       </c>
     </row>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>G7JHG6</t>
+          <t>9OI1TV</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>4Z4R7U</t>
+          <t>FNFBTH</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>G99B8Z</t>
+          <t>KXCCOC</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>LY0RKU</t>
+          <t>2HVK71</t>
         </is>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>T4VT8I</t>
+          <t>7PCOXF</t>
         </is>
       </c>
     </row>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>GWKC62</t>
+          <t>LCXQM7</t>
         </is>
       </c>
     </row>
@@ -2794,7 +2794,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>XPA9GI</t>
+          <t>R2ZP1S</t>
         </is>
       </c>
     </row>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>X8IO8N</t>
+          <t>PGEUUY</t>
         </is>
       </c>
     </row>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>7I2MYY</t>
+          <t>L4O7CL</t>
         </is>
       </c>
     </row>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>01ZC3F</t>
+          <t>HQKRRB</t>
         </is>
       </c>
     </row>
@@ -2864,7 +2864,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>8QVE5U</t>
+          <t>64XRXS</t>
         </is>
       </c>
     </row>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>QMFJ1R</t>
+          <t>E7Y103</t>
         </is>
       </c>
     </row>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>NZXFG6</t>
+          <t>9AQA7C</t>
         </is>
       </c>
     </row>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>QHZGVO</t>
+          <t>23HF35</t>
         </is>
       </c>
     </row>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>OJ1F7F</t>
+          <t>VM2PUH</t>
         </is>
       </c>
     </row>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>I8GSIE</t>
+          <t>VI1ZPJ</t>
         </is>
       </c>
     </row>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>9APL6E</t>
+          <t>MQIUJD</t>
         </is>
       </c>
     </row>
@@ -2990,7 +2990,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>9NVP1Y</t>
+          <t>285VCG</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>YY2891</t>
+          <t>LOPBJC</t>
         </is>
       </c>
     </row>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>OQR6U2</t>
+          <t>93KY0P</t>
         </is>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>LBEUT6</t>
+          <t>NJ8PP2</t>
         </is>
       </c>
     </row>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>LRQD8Y</t>
+          <t>KMCGLK</t>
         </is>
       </c>
     </row>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>DGCI0N</t>
+          <t>ZI5DMR</t>
         </is>
       </c>
     </row>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>MZE2OA</t>
+          <t>X6MF4U</t>
         </is>
       </c>
     </row>
@@ -3109,7 +3109,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>XNPFD2</t>
+          <t>DKNGGB</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>YQJ84Q</t>
+          <t>9ONEUC</t>
         </is>
       </c>
     </row>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>9B14QT</t>
+          <t>OJQM93</t>
         </is>
       </c>
     </row>
@@ -3160,7 +3160,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>RIXP1F</t>
+          <t>V0UMNU</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>MK17NH</t>
+          <t>1M10V6</t>
         </is>
       </c>
     </row>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>3DGGCM</t>
+          <t>7T5461</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>4W3RPI</t>
+          <t>1SBQXM</t>
         </is>
       </c>
     </row>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>RQXT7F</t>
+          <t>1KG709</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>FEV23X</t>
+          <t>OQ3GLP</t>
         </is>
       </c>
     </row>
@@ -3263,7 +3263,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>2WXYMR</t>
+          <t>0I4YS0</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>JZ95J7</t>
+          <t>V1QXIC</t>
         </is>
       </c>
     </row>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>QM25VX</t>
+          <t>LNOPAU</t>
         </is>
       </c>
     </row>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>UFBJJF</t>
+          <t>XVE0DY</t>
         </is>
       </c>
     </row>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>5GDO6Z</t>
+          <t>5MIDHK</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>V9YF8Q</t>
+          <t>9X5W9B</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>4ZS89I</t>
+          <t>J8WHU2</t>
         </is>
       </c>
     </row>
@@ -3383,7 +3383,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>MEUVQQ</t>
+          <t>LHRH8Q</t>
         </is>
       </c>
     </row>
@@ -3400,7 +3400,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>SQZY5Z</t>
+          <t>MW2NOS</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>QLBKIB</t>
+          <t>STEV4M</t>
         </is>
       </c>
     </row>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>MXBR8J</t>
+          <t>UOZZBC</t>
         </is>
       </c>
     </row>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>PCEEHE</t>
+          <t>V7I828</t>
         </is>
       </c>
     </row>
@@ -3468,7 +3468,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>2B1XTT</t>
+          <t>HQ8ESR</t>
         </is>
       </c>
     </row>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>6G2FLT</t>
+          <t>BS9C0V</t>
         </is>
       </c>
     </row>
@@ -3502,7 +3502,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>G7JD8A</t>
+          <t>XIHWYA</t>
         </is>
       </c>
     </row>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>JE4NJ1</t>
+          <t>J36JUA</t>
         </is>
       </c>
     </row>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>2RG73Z</t>
+          <t>W4C4NW</t>
         </is>
       </c>
     </row>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>6LOM2A</t>
+          <t>WTBVDY</t>
         </is>
       </c>
     </row>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>K91K19</t>
+          <t>4Z6V2G</t>
         </is>
       </c>
     </row>
@@ -3587,7 +3587,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>II0DOH</t>
+          <t>QCBX0X</t>
         </is>
       </c>
     </row>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>BHXKI4</t>
+          <t>PRST8C</t>
         </is>
       </c>
     </row>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>H0G6KN</t>
+          <t>MQ35GE</t>
         </is>
       </c>
     </row>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>8AMSRN</t>
+          <t>RQ5DDT</t>
         </is>
       </c>
     </row>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>FX73RD</t>
+          <t>GRF0I8</t>
         </is>
       </c>
     </row>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>VXQKY9</t>
+          <t>RJKQKX</t>
         </is>
       </c>
     </row>
@@ -3689,7 +3689,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ZY6TN9</t>
+          <t>WNJ76Y</t>
         </is>
       </c>
     </row>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>04A5WJ</t>
+          <t>7ELX0S</t>
         </is>
       </c>
     </row>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>5OMMLT</t>
+          <t>APGJVR</t>
         </is>
       </c>
     </row>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>C7DEO6</t>
+          <t>6PJTGS</t>
         </is>
       </c>
     </row>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>YL8ZAN</t>
+          <t>3KIEDN</t>
         </is>
       </c>
     </row>
@@ -3774,7 +3774,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>5RJQN7</t>
+          <t>QBK28N</t>
         </is>
       </c>
     </row>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>4JVIRD</t>
+          <t>XBL8Z9</t>
         </is>
       </c>
     </row>
@@ -3808,7 +3808,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>1GIB5A</t>
+          <t>PDG3Y0</t>
         </is>
       </c>
     </row>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>340WWO</t>
+          <t>4UZUCQ</t>
         </is>
       </c>
     </row>
@@ -3842,7 +3842,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>HQTZY1</t>
+          <t>Y6I8KX</t>
         </is>
       </c>
     </row>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>1KAKBA</t>
+          <t>1S61O5</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>DOZ3JA</t>
+          <t>0X17AF</t>
         </is>
       </c>
     </row>
@@ -3894,7 +3894,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>32Y0AS</t>
+          <t>UWOT66</t>
         </is>
       </c>
     </row>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N8CQP8</t>
+          <t>5EFI0T</t>
         </is>
       </c>
     </row>
@@ -3928,7 +3928,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>0MDJDC</t>
+          <t>PGHM54</t>
         </is>
       </c>
     </row>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>ZCYY51</t>
+          <t>YVU3ET</t>
         </is>
       </c>
     </row>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>CPMNN2</t>
+          <t>GU8TXI</t>
         </is>
       </c>
     </row>
@@ -3979,7 +3979,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>O0Z7EI</t>
+          <t>O5Z58D</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>2EAMS5</t>
+          <t>ANF9K1</t>
         </is>
       </c>
     </row>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>BTGWPX</t>
+          <t>WKAU1R</t>
         </is>
       </c>
     </row>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>AM08IR</t>
+          <t>YAZIPG</t>
         </is>
       </c>
     </row>
@@ -4048,7 +4048,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>EQA060</t>
+          <t>V411QQ</t>
         </is>
       </c>
     </row>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>YD6N43</t>
+          <t>ZKFPHO</t>
         </is>
       </c>
     </row>
@@ -4082,7 +4082,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>PJQTUG</t>
+          <t>XZU80Q</t>
         </is>
       </c>
     </row>
@@ -4099,7 +4099,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>4ABLKB</t>
+          <t>7ZO339</t>
         </is>
       </c>
     </row>
@@ -4117,7 +4117,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>VQOIG0</t>
+          <t>EIQ8DL</t>
         </is>
       </c>
     </row>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>G2IL9A</t>
+          <t>UOKRAS</t>
         </is>
       </c>
     </row>
@@ -4151,7 +4151,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>9AFGNX</t>
+          <t>Q83U1E</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>S9QK8V</t>
+          <t>63A9TZ</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>A3H0PU</t>
+          <t>JX65GI</t>
         </is>
       </c>
     </row>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>RCBUOI</t>
+          <t>OAGXPG</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>FHMJZF</t>
+          <t>U6Z89O</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>3M0XMB</t>
+          <t>5BGR2T</t>
         </is>
       </c>
     </row>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>I16498</t>
+          <t>ENLTLU</t>
         </is>
       </c>
     </row>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>2KB3DA</t>
+          <t>LSF151</t>
         </is>
       </c>
     </row>
@@ -4289,7 +4289,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>PB0J51</t>
+          <t>Q87M7P</t>
         </is>
       </c>
     </row>
@@ -4306,7 +4306,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>M4AC5I</t>
+          <t>YH6MRA</t>
         </is>
       </c>
     </row>
@@ -4323,7 +4323,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>EDUWUZ</t>
+          <t>F0Y9UZ</t>
         </is>
       </c>
     </row>
@@ -4340,7 +4340,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>5QT24T</t>
+          <t>MAD31J</t>
         </is>
       </c>
     </row>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>8QWHPP</t>
+          <t>SPAC9D</t>
         </is>
       </c>
     </row>
@@ -4375,7 +4375,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>69OUUM</t>
+          <t>H4A86H</t>
         </is>
       </c>
     </row>
@@ -4394,7 +4394,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>CXIRKO</t>
+          <t>QSAHW5</t>
         </is>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>MO5CC9</t>
+          <t>J066M2</t>
         </is>
       </c>
     </row>
@@ -4428,7 +4428,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>UD20W4</t>
+          <t>8INM54</t>
         </is>
       </c>
     </row>
@@ -4445,7 +4445,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>DUUFS5</t>
+          <t>6TIO5Q</t>
         </is>
       </c>
     </row>
@@ -4462,7 +4462,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>0OYXS5</t>
+          <t>3C0BMC</t>
         </is>
       </c>
     </row>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>XBV5PE</t>
+          <t>WA9894</t>
         </is>
       </c>
     </row>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>82YX99</t>
+          <t>Z5YXJI</t>
         </is>
       </c>
     </row>
@@ -4514,7 +4514,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>IOSZMN</t>
+          <t>4OSQ77</t>
         </is>
       </c>
     </row>
@@ -4532,7 +4532,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>ELWJ6S</t>
+          <t>9DL70Y</t>
         </is>
       </c>
     </row>
@@ -4549,7 +4549,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>H1L8BQ</t>
+          <t>2MPD44</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4566,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>R1EXG8</t>
+          <t>G7WPLJ</t>
         </is>
       </c>
     </row>
@@ -4583,7 +4583,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>926VCD</t>
+          <t>FU25ZI</t>
         </is>
       </c>
     </row>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>4PUE8X</t>
+          <t>QYBOIT</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>TEF801</t>
+          <t>9EFUC2</t>
         </is>
       </c>
     </row>
@@ -4634,7 +4634,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Z2IH1D</t>
+          <t>3V0HI1</t>
         </is>
       </c>
     </row>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>EP9B1V</t>
+          <t>RFDLP6</t>
         </is>
       </c>
     </row>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>M4RA1V</t>
+          <t>A3Y8W4</t>
         </is>
       </c>
     </row>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>U4KEQU</t>
+          <t>B0KBT3</t>
         </is>
       </c>
     </row>
@@ -4702,7 +4702,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>6NBL3K</t>
+          <t>PKESOG</t>
         </is>
       </c>
     </row>
@@ -4719,7 +4719,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>K3H96R</t>
+          <t>3Z3KG6</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>MGOOPQ</t>
+          <t>MY02O6</t>
         </is>
       </c>
     </row>
@@ -4754,7 +4754,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>QTSS4K</t>
+          <t>EEA6FN</t>
         </is>
       </c>
     </row>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>I7N1QK</t>
+          <t>6Z2EOX</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>P8GO54</t>
+          <t>Z6OQ6O</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4806,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>4L0S57</t>
+          <t>PSVUXB</t>
         </is>
       </c>
     </row>
@@ -4823,7 +4823,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>W6PUHB</t>
+          <t>SHVYL1</t>
         </is>
       </c>
     </row>
@@ -4840,7 +4840,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Z2ERPF</t>
+          <t>EZM1O5</t>
         </is>
       </c>
     </row>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>VP85AP</t>
+          <t>D0B328</t>
         </is>
       </c>
     </row>
@@ -4874,7 +4874,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>OLU7G9</t>
+          <t>U9QYFA</t>
         </is>
       </c>
     </row>
@@ -4891,7 +4891,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>TI5NFZ</t>
+          <t>J4I4W2</t>
         </is>
       </c>
     </row>
@@ -4908,7 +4908,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>CPMBET</t>
+          <t>X35ONE</t>
         </is>
       </c>
     </row>
@@ -4925,7 +4925,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>N30S1G</t>
+          <t>ECU5K2</t>
         </is>
       </c>
     </row>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>X3F1VH</t>
+          <t>X27HYS</t>
         </is>
       </c>
     </row>
@@ -4960,7 +4960,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>FDEY5N</t>
+          <t>LXYTKX</t>
         </is>
       </c>
     </row>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>AKUYSM</t>
+          <t>M9CD51</t>
         </is>
       </c>
     </row>
@@ -4994,7 +4994,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>H944DQ</t>
+          <t>IBG5KB</t>
         </is>
       </c>
     </row>
@@ -5011,7 +5011,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>XCNQOB</t>
+          <t>57B04E</t>
         </is>
       </c>
     </row>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>2TQT87</t>
+          <t>APP61M</t>
         </is>
       </c>
     </row>
@@ -5045,7 +5045,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>WUNQVB</t>
+          <t>9F7FJT</t>
         </is>
       </c>
     </row>
@@ -5063,7 +5063,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>VQEAAO</t>
+          <t>31R7ER</t>
         </is>
       </c>
     </row>
@@ -5080,7 +5080,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>YA1YFH</t>
+          <t>OCU4VP</t>
         </is>
       </c>
     </row>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>UVZ588</t>
+          <t>8QGCFC</t>
         </is>
       </c>
     </row>
@@ -5114,7 +5114,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>CGZ5C4</t>
+          <t>HIC9CY</t>
         </is>
       </c>
     </row>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>52V48D</t>
+          <t>7PP0NB</t>
         </is>
       </c>
     </row>
@@ -5148,7 +5148,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>IXMW0E</t>
+          <t>D5Z0PI</t>
         </is>
       </c>
     </row>
@@ -5165,7 +5165,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Q9TANW</t>
+          <t>R0UXGZ</t>
         </is>
       </c>
     </row>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>GJHZ2Z</t>
+          <t>4J7DVM</t>
         </is>
       </c>
     </row>
@@ -5199,7 +5199,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>X2AL4J</t>
+          <t>GCOXXR</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>WM9VJJ</t>
+          <t>RCXKVV</t>
         </is>
       </c>
     </row>
@@ -5233,7 +5233,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>APMZ2P</t>
+          <t>F0IN39</t>
         </is>
       </c>
     </row>
@@ -5250,7 +5250,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>9WYGPR</t>
+          <t>AQE4QG</t>
         </is>
       </c>
     </row>
@@ -5267,7 +5267,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>4JI1II</t>
+          <t>WVYEZI</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5286,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>GVEXYI</t>
+          <t>FQQ2BN</t>
         </is>
       </c>
     </row>
@@ -5303,7 +5303,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>F4HVT5</t>
+          <t>8DURGC</t>
         </is>
       </c>
     </row>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>PBWGDD</t>
+          <t>ZX2IRW</t>
         </is>
       </c>
     </row>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>1OZ6HW</t>
+          <t>UHPTNC</t>
         </is>
       </c>
     </row>
@@ -5354,7 +5354,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>SHV1KU</t>
+          <t>BGFOFC</t>
         </is>
       </c>
     </row>
@@ -5371,7 +5371,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>MBYW8F</t>
+          <t>6KSXIV</t>
         </is>
       </c>
     </row>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>K969QC</t>
+          <t>FE95PZ</t>
         </is>
       </c>
     </row>
@@ -5405,7 +5405,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>9D5BVL</t>
+          <t>IR6T17</t>
         </is>
       </c>
     </row>
@@ -5422,7 +5422,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>1FKKHA</t>
+          <t>H34F1O</t>
         </is>
       </c>
     </row>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>RKG4FP</t>
+          <t>ZTF4T8</t>
         </is>
       </c>
     </row>
@@ -5456,7 +5456,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>9RTSF0</t>
+          <t>3U01SA</t>
         </is>
       </c>
     </row>
@@ -5474,7 +5474,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>H430SF</t>
+          <t>VFLD3L</t>
         </is>
       </c>
     </row>
@@ -5491,7 +5491,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>7VNREX</t>
+          <t>16ARJI</t>
         </is>
       </c>
     </row>
@@ -5508,7 +5508,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>M971RN</t>
+          <t>1S06O8</t>
         </is>
       </c>
     </row>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>GJBEYJ</t>
+          <t>G2KCSY</t>
         </is>
       </c>
     </row>
@@ -5542,7 +5542,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>ZFRZGH</t>
+          <t>F5614S</t>
         </is>
       </c>
     </row>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>VH6J4U</t>
+          <t>TJJU4G</t>
         </is>
       </c>
     </row>
@@ -5576,7 +5576,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>3QUND7</t>
+          <t>V9Z9I9</t>
         </is>
       </c>
     </row>
@@ -5594,7 +5594,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Z15IBB</t>
+          <t>C9I0CJ</t>
         </is>
       </c>
     </row>
